--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,93 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>dubbo 工作原理</t>
+  </si>
+  <si>
+    <t>第一层：service 层，接口层，给服务提供者和消费者来实现的</t>
+  </si>
+  <si>
+    <t>第二层：config 层，配置层，主要是对 dubbo 进行各种配置的</t>
+  </si>
+  <si>
+    <t>第三层：proxy 层，服务代理层，无论是 consumer 还是 provider，dubbo 都会给你生成代理，代理之间进行网络通信</t>
+  </si>
+  <si>
+    <t>第四层：registry 层，服务注册层，负责服务的注册与发现</t>
+  </si>
+  <si>
+    <t>第五层：cluster 层，集群层，封装多个服务提供者的路由以及负载均衡，将多个实例组合成一个服务</t>
+  </si>
+  <si>
+    <t>第六层：monitor 层，监控层，对 rpc 接口的调用次数和调用时间进行监控</t>
+  </si>
+  <si>
+    <t>第七层：protocal 层，远程调用层，封装 rpc 调用</t>
+  </si>
+  <si>
+    <t>第八层：exchange 层，信息交换层，封装请求响应模式，同步转异步</t>
+  </si>
+  <si>
+    <t>第九层：transport 层，网络传输层，抽象 mina 和 netty 为统一接口</t>
+  </si>
+  <si>
+    <t>第十层：serialize 层，数据序列化层</t>
+  </si>
+  <si>
+    <t>工作流程</t>
+  </si>
+  <si>
+    <t>第一步：provider 向注册中心去注册</t>
+  </si>
+  <si>
+    <t>第二步：consumer 从注册中心订阅服务，注册中心会通知 consumer 注册好的服务</t>
+  </si>
+  <si>
+    <t>第三步：consumer 调用 provider</t>
+  </si>
+  <si>
+    <t>第四步：consumer 和 provider 都异步通知监控中心</t>
+  </si>
+  <si>
+    <t>序列化</t>
+  </si>
+  <si>
+    <t>就是把数据结构或者是一些对象，转换为二进制串的过程，而反序列化是将在序列化过程中所生成的二进制串转换成数据结构或者对象的过程。</t>
+  </si>
+  <si>
+    <t>dubbo 支持哪些通信协议？</t>
+  </si>
+  <si>
+    <t>dubbo 协议</t>
+  </si>
+  <si>
+    <t>默认就是走 dubbo 协议，单一长连接，进行的是 NIO 异步通信，基于 hessian 作为序列化协议。</t>
+  </si>
+  <si>
+    <t>使用的场景是：传输数据量小（每次请求在 100kb 以内），但是并发量很高。</t>
+  </si>
+  <si>
+    <t>长连接，通俗点说，就是建立连接过后可以持续发送请求，无须再建立连接。</t>
+  </si>
+  <si>
+    <t>而短连接，每次要发送请求之前，需要先重新建立一次连接。</t>
+  </si>
+  <si>
+    <t>支持哪些序列化协议？</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -32,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -40,15 +128,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -60,48 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,8 +225,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,55 +250,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,13 +273,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,169 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,26 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,17 +505,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +541,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,153 +569,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,14 +1069,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="25200" windowHeight="12240" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作原理" sheetId="1" r:id="rId1"/>
+    <sheet name="通信协议" sheetId="2" r:id="rId2"/>
+    <sheet name="负载容错" sheetId="3" r:id="rId3"/>
+    <sheet name="spi" sheetId="4" r:id="rId4"/>
+    <sheet name="服务治理" sheetId="5" r:id="rId5"/>
+    <sheet name="生产问题" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -78,10 +81,129 @@
     <t>dubbo 协议</t>
   </si>
   <si>
-    <t>默认就是走 dubbo 协议，单一长连接，进行的是 NIO 异步通信，基于 hessian 作为序列化协议。</t>
-  </si>
-  <si>
-    <t>使用的场景是：传输数据量小（每次请求在 100kb 以内），但是并发量很高。</t>
+    <r>
+      <t>默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就是走 dubbo 协议，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单一长连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，进行的是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NIO 异步通信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，基于 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hessian 作为序列化协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用的场景是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传输数据量小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（每次请求在 100kb 以内），但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并发量很高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>长连接，通俗点说，就是建立连接过后可以持续发送请求，无须再建立连接。</t>
@@ -90,7 +212,2226 @@
     <t>而短连接，每次要发送请求之前，需要先重新建立一次连接。</t>
   </si>
   <si>
-    <t>支持哪些序列化协议？</t>
+    <t>rmi 协议</t>
+  </si>
+  <si>
+    <t>走 Java 二进制序列化，多个短连接，适合消费者和提供者数量差不多的情况，适用于文件的传输，一般较少用。</t>
+  </si>
+  <si>
+    <t>hessian 协议</t>
+  </si>
+  <si>
+    <t>走 hessian 序列化协议，多个短连接，适用于提供者数量比消费者数量还多的情况，适用于文件的传输，一般较少用。</t>
+  </si>
+  <si>
+    <t>http 协议</t>
+  </si>
+  <si>
+    <t>走 json 序列化</t>
+  </si>
+  <si>
+    <t>webservice</t>
+  </si>
+  <si>
+    <t>走 SOAP 文本序列化</t>
+  </si>
+  <si>
+    <t>Hessian 的数据结构</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>64-bit date（64 位毫秒值的日期）</t>
+  </si>
+  <si>
+    <t>64-bit double</t>
+  </si>
+  <si>
+    <t>32-bit int</t>
+  </si>
+  <si>
+    <t>64-bit long</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>UTF-8 编码的 string</t>
+  </si>
+  <si>
+    <t>为什么 PB 的效率是最高的？</t>
+  </si>
+  <si>
+    <t>Protocol Buffer 其实是 Google 出品的一种轻量并且高效的结构化数据存储格式，性能比 JSON、XML 要高很多。</t>
+  </si>
+  <si>
+    <t>其实 PB 之所以性能如此好，主要得益于两个：</t>
+  </si>
+  <si>
+    <t>第一，它使用 proto 编译器，自动进行序列化和反序列化，速度非常快，应该比 XML 和 JSON 快上了 20~100 倍</t>
+  </si>
+  <si>
+    <t>第二，它的数据压缩效果好，就是说它序列化后的数据量体积小。因为体积小，传输起来带宽和速度上会有优化。</t>
+  </si>
+  <si>
+    <t>dubbo 负载均衡策略</t>
+  </si>
+  <si>
+    <t>random loadbalance</t>
+  </si>
+  <si>
+    <r>
+      <t>默认情况下，dubbo 是 random load balance ，即</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随机调用实现负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，可以对 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provider 不同实例设置不同的权重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>会按照权重来负载均衡，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权重越大分配流量越高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一般就用这个默认的就可以了。</t>
+    </r>
+  </si>
+  <si>
+    <t>roundrobin loadbalance</t>
+  </si>
+  <si>
+    <r>
+      <t>这个的话默认就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>均匀地将流量打到各个机器上去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是如果各个机器的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能不一样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，容易导致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能差的机器负载过高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所以此时需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调整权重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，让</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能差的机器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>承载</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权重小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一些，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流量少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一些。</t>
+    </r>
+  </si>
+  <si>
+    <t>举个栗子</t>
+  </si>
+  <si>
+    <t>跟运维同学申请机器，有的时候，我们运气好，正好公司资源比较充足，刚刚有一批热气腾腾、刚刚做好的虚拟机新鲜出炉，配置都比较高：8 核 + 16G 机器，申请到 2 台。</t>
+  </si>
+  <si>
+    <t>过了一段时间，我们感觉 2 台机器有点不太够，我就去找运维同学说，“哥儿们，你能不能再给我一台机器”，但是这时只剩下一台 4 核 + 8G 的机器。我要还是得要。</t>
+  </si>
+  <si>
+    <t>这个时候，可以给两台 8 核 16G 的机器设置权重 4，给剩余 1 台 4 核 8G 的机器设置权重 2。</t>
+  </si>
+  <si>
+    <t>leastactive loadbalance</t>
+  </si>
+  <si>
+    <r>
+      <t>这个就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动感知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一下，如果某个机器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能越差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么接收的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求越少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，越不活跃，此时就会给不活跃的性能差的机器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更少的请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>consistanthash loadbalance</t>
+  </si>
+  <si>
+    <r>
+      <t>一致性 Hash 算法，相同参数的请求一定分发到一个 provider 上去，provider 挂掉的时候，会基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虚拟节点均匀分配剩余的流量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，抖动不会太大。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果你需要的不是随机负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，是要一类请求都到一个节点，那</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就走这个一致性 Hash 策略。</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo 集群容错策略</t>
+  </si>
+  <si>
+    <t>failover cluster 模式</t>
+  </si>
+  <si>
+    <r>
+      <t>失败自动切换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动重试其他机器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，默认就是这个，常见于读操作。（失败重试其它机器）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"findFoo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>failfast cluster 模式</t>
+  </si>
+  <si>
+    <r>
+      <t>一次调用失败就立即失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，常见于非幂等性的写操作，比如新增一条记录（调用失败就立即失败）</t>
+    </r>
+  </si>
+  <si>
+    <t>failsafe cluster 模式</t>
+  </si>
+  <si>
+    <r>
+      <t>出现异常时忽略掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，常用于不重要的接口调用，比如记录日志。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"failsafe"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"failsafe"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>failback cluster 模式</t>
+  </si>
+  <si>
+    <r>
+      <t>失败了后台自动记录请求，然后定时重发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比较适合于写消息队列这种。</t>
+    </r>
+  </si>
+  <si>
+    <t>forking cluster 模式</t>
+  </si>
+  <si>
+    <r>
+      <t>并行调用多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provider，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只要一个成功就立即返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>常用于实时性要求比较高的读操作，但是会浪费更多的服务资源，可通过 forks="2" 来设置最大并行数。</t>
+  </si>
+  <si>
+    <t>broadcacst cluster</t>
+  </si>
+  <si>
+    <r>
+      <t>逐个调用所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的 provider。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何一个 provider 出错则报错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（从2.1.0 版本开始支持）。通常用于通知所有提供者更新缓存或日志等本地资源信息。</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo动态代理策略</t>
+  </si>
+  <si>
+    <t>默认使用 javassist 动态字节码生成，创建代理类。但是可以通过 spi 扩展机制配置自己的动态代理策略。</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <r>
+      <t>service provider interface，说白了是什么意思呢，比如你有个接口，现在这个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接口有 3 个实现类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>那么在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系统运行的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对这个接口到底</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择哪个实现类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呢？这就需要 spi 了，需要根据指定的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者是默认的配置，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>去找到对应的实现类加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进来，然后用这个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现类的实例对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>举个栗子。</t>
+  </si>
+  <si>
+    <r>
+      <t>你有一个接口</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A。A1/A2/A3 分别是接口A的不同实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。你通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置 接口 A = 实现 A2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>那么在系统实际</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载你的配置，用实现 A2 实例化一个对象来提供服务。</t>
+    </r>
+  </si>
+  <si>
+    <t>spi 机制一般用在哪儿？插件扩展的场景，比如说你开发了一个给别人使用的开源框架，如果你想让别人自己写个插件，</t>
+  </si>
+  <si>
+    <t>插到你的开源框架里面，从而扩展某个功能，这个时候 spi 思想就用上了。</t>
+  </si>
+  <si>
+    <t>Java spi 思想的体现</t>
+  </si>
+  <si>
+    <r>
+      <t>spi 经典的思想体现，大家平时都在用，比如说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jdbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Java 定义了一套 jdbc 的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是 Java 并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有提供 jdbc 的实现类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>但是实际上项目跑的时候，要使用 jdbc 接口的哪些实现类呢？一般来说，我们要根据自己使用的数据库，</t>
+  </si>
+  <si>
+    <t>比如 mysql，你就将 mysql-jdbc-connector.jar 引入进来</t>
+  </si>
+  <si>
+    <t>oracle，你就将 oracle-jdbc-connector.jar 引入进来。</t>
+  </si>
+  <si>
+    <r>
+      <t>在系统跑的时候，碰到你使用 jdbc 的接口，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他会在底层使用你引入的那个 jar 中提供的实现类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo 的 spi 思想</t>
+  </si>
+  <si>
+    <t>dubbo 也用了 spi 思想，不过没有用 jdk 的 spi 机制，是自己实现的一套 spi 机制。</t>
+  </si>
+  <si>
+    <r>
+      <t>Protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> protocol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExtensionLoader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getExtensionLoader(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getAdaptiveExtension();</t>
+    </r>
+  </si>
+  <si>
+    <t>Protocol 接口，在系统运行的时候，dubbo 会判断一下应该选用这个 Protocol 接口的哪个实现类来实例化对象来使用。</t>
+  </si>
+  <si>
+    <r>
+      <t>它会去</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找一个你配置的 Protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将你配置的 Protocol 实现类，加载到 jvm 中来，然后实例化对象，就用你的那个 Protocol 实现类就可以了。</t>
+    </r>
+  </si>
+  <si>
+    <t>上面那行代码就是 dubbo 里大量使用的，就是对很多组件，都是保留一个接口和多个实现，然后在系统运行的时候动态根据配置去找到对应的实现类。如果你没配置，那就走默认的实现好了，没问题。</t>
+  </si>
+  <si>
+    <t>所以说，这就看到了 dubbo 的 spi 机制默认是怎么玩儿的了，其实就是 Protocol 接口，</t>
+  </si>
+  <si>
+    <t>@SPI("dubbo") 说的是，通过 SPI 机制来提供实现类，实现类是通过 dubbo 作为默认 key 去配置文件里找到的，</t>
+  </si>
+  <si>
+    <t>配置文件名称与接口全限定名一样的，通过 dubbo 作为 key 可以找到默认的实现类就是 com.alibaba.dubbo.rpc.protocol.dubbo.DubboProtocol。</t>
+  </si>
+  <si>
+    <t>如果想要动态替换掉默认的实现类，需要使用 @Adaptive 接口，Protocol 接口中，有两个方法加了 @Adaptive 注解，就是说那俩接口会被代理实现。</t>
+  </si>
+  <si>
+    <t>啥意思呢？</t>
+  </si>
+  <si>
+    <t>比如这个 Protocol 接口搞了俩 @Adaptive 注解标注了方法，在运行的时候会针对 Protocol 生成代理类，这个代理类的那俩方法里面会有代理代码，</t>
+  </si>
+  <si>
+    <t>代理代码会在运行的时候动态根据 url 中的 protocol 来获取那个 key，默认是 dubbo，你也可以自己指定，你如果指定了别的 key，那么就会获取别的实现类的实例了。</t>
+  </si>
+  <si>
+    <t>如何自己扩展 dubbo 中的组件</t>
+  </si>
+  <si>
+    <t>自己写个工程，要是那种可以打成 jar 包的，里面的 src/main/resources 目录下，搞一个 META-INF/services</t>
+  </si>
+  <si>
+    <t>里面放个文件叫：com.alibaba.dubbo.rpc.Protocol，文件里搞一个my=com.bingo.MyProtocol。自己把 jar 弄到 nexus 私服里去。</t>
+  </si>
+  <si>
+    <t>然后自己搞一个 dubbo provider 工程，在这个工程里面依赖你自己搞的那个 jar，然后在 spring 配置文件里给个配置：</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:protocol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">=”my” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=”20000” /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>provider 启动的时候，就会加载到我们 jar 包里的my=com.bingo.MyProtocol 这行配置里，接着会根据你的配置使用你定义好的 MyProtocol 了</t>
+  </si>
+  <si>
+    <t>这个就是简单说明一下，你通过上述方式，可以替换掉大量的 dubbo 内部的组件，就是扔个你自己的 jar 包，然后配置一下即可。</t>
+  </si>
+  <si>
+    <t>dubbo 里面提供了大量的类似上面的扩展点，就是说，你如果要扩展一个东西，只要自己写个 jar，让你的 consumer 或者是 provider 工程，依赖你的那个 jar</t>
+  </si>
+  <si>
+    <t>在你的 jar 里指定目录下配置好接口名称对应的文件，里面通过 key=实现类。</t>
+  </si>
+  <si>
+    <t>然后对于对应的组件，类似 &lt;dubbo:protocol&gt; 用你的那个 key 对应的实现类来实现某个接口，你可以自己去扩展 dubbo 的各种功能，提供你自己的实现。</t>
+  </si>
+  <si>
+    <t>服务降级</t>
+  </si>
+  <si>
+    <t>比如说服务 A 调用服务 B，结果服务 B 挂掉了，服务 A 重试几次调用服务 B，还是不行，那么直接降级，走一个备用的逻辑，给用户返回响应。</t>
+  </si>
+  <si>
+    <t>举个栗子，我们有接口 HelloService。HelloServiceImpl 有该接口的具体实现。</t>
+  </si>
+  <si>
+    <t>&lt;dubbo:reference id="fooService" interface="com.test.service.FooService"  timeout="10000" check="false" mock="return null"&gt;</t>
+  </si>
+  <si>
+    <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
+  </si>
+  <si>
+    <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，命名规则是 “接口名称+Mock” 后缀。然后在 Mock 类里实现自己的降级逻辑。</t>
+  </si>
+  <si>
+    <t>失败重试和超时重试</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">就是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumer 调用 provider 要是失败了，比如抛异常了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此时应该是可以重试的，或者调用超时了也可以重试。配置如下：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"xxxx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"xx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"3"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"2000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>某个服务的接口，要耗费 5s，你这边不能干等着，你这边配置了 timeout 之后，我等待 2s，还没返回，我直接就撤了，不能干等你。</t>
+  </si>
+  <si>
+    <t>timeout：一般设置为 200ms，我们认为不能超过 200ms 还没返回。</t>
+  </si>
+  <si>
+    <t>retries：设置 retries，一般是在读请求的时候，比如你要查询个数据，你可以设置个 retries，如果第一次没读到，报错，重试指定的次数，尝试再次读取。</t>
+  </si>
+  <si>
+    <t>幂等性</t>
+  </si>
+  <si>
+    <t>多次发起同一个请求，你这个接口得保证结果是准确的，比如不能多扣款、不能多插入一条数据、不能将统计值多加了 1。这就是幂等性。</t>
+  </si>
+  <si>
+    <t>保证幂等性主要是三点</t>
+  </si>
+  <si>
+    <r>
+      <t>对于每个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求必须有一个唯一的标识</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，举个栗子：订单支付请求，肯定得包含订单 id，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个订单 id 最多支付一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对吧。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>每次处理完请求之后，必须有一个记录</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标识这个请求处理过了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。常见的方案是在 mysql 中记录个状态啥的，比如支付之前记录一条这个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>订单的支付流水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>每次接收请求需要进行判断，判断之前是否处理过。比如说，如果有一个订单已经支付了，就已经有了一条支付流水，那么如果重复发送这个请求，</t>
+  </si>
+  <si>
+    <t>则此时先插入支付流水，orderId 已经存在了，唯一键约束生效，报错插入不进去的。然后你就不用再扣款了。</t>
+  </si>
+  <si>
+    <t>接口请求的顺序性如何保证</t>
+  </si>
+  <si>
+    <t>首先，一般来说，个人建议是，你们从业务逻辑上设计的这个系统最好是不需要这种顺序性的保证，因为一旦引入顺序性保障，</t>
+  </si>
+  <si>
+    <t>比如使用分布式锁，会导致系统复杂度上升，而且会带来效率低下，热点数据压力过大等问题。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">简单来说，首先你得用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dubbo 的一致性 hash 负载均衡策略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将比如某一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>订单 id 对应的请求都给分发到某个机器上去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接着就是在那个机器上，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可能还是多线程并发执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，你可能得立即将某个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>订单 id 对应的请求扔一个内存队列里去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强制排队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样来确保他们的顺序性。</t>
+    </r>
+  </si>
+  <si>
+    <t>但是这样引发的后续问题就很多，比如说要是某个订单对应的请求特别多，造成某台机器成热点怎么办？解决这些问题又要开启后续一连串的复杂技术方案</t>
+  </si>
+  <si>
+    <t>最好是比如说刚才那种，一个订单的插入和删除操作，能不能合并成一个操作，就是一个删除，或者是其它什么，避免这种问题的产生。</t>
+  </si>
+  <si>
+    <t>自己设计一个类似 Dubbo 的 RPC 框架</t>
+  </si>
+  <si>
+    <t>上来你的服务就得去注册中心注册吧，你是不是得有个注册中心，保留各个服务的信息，可以用 zookeeper 来做，对吧。</t>
+  </si>
+  <si>
+    <r>
+      <t>然后你的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消费者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要去</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拿对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吧，对吧，而且每个服务可能会存在于多台机器上。</t>
+    </r>
+  </si>
+  <si>
+    <t>接着你就该发起一次请求了，咋发起？当然是基于动态代理了，你面向接口获取到一个动态代理，</t>
+  </si>
+  <si>
+    <t>这个动态代理就是接口在本地的一个代理，然后这个代理会找到服务对应的机器地址。</t>
+  </si>
+  <si>
+    <t>然后找哪个机器发送请求？那肯定得有个负载均衡算法了，比如最简单的可以随机轮询是不是。</t>
+  </si>
+  <si>
+    <t>接着找到一台机器，就可以跟它发送请求了，第一个问题咋发送？你可以说用 netty 了，nio 方式</t>
+  </si>
+  <si>
+    <t>第二个问题发送啥格式数据？你可以说用 hessian 序列化协议了</t>
+  </si>
+  <si>
+    <t>服务器那边一样的，需要针对你自己的服务生成一个动态代理，监听某个网络端口了，然后代理你本地的服务代码。接收到请求的时候，就调用对应的服务代码，对吧。</t>
   </si>
 </sst>
 </file>
@@ -98,12 +2439,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,38 +2461,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,7 +2521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -187,16 +2528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,16 +2543,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,10 +2612,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color rgb="FF22863A"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -273,25 +2651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,73 +2669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +2699,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +2753,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,25 +2801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +2825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,41 +2842,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,6 +2869,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,6 +2889,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,36 +2931,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,120 +2980,132 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -780,6 +3170,184 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4467225"/>
+          <a:ext cx="5076825" cy="2581275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7067550"/>
+          <a:ext cx="4524375" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10477500"/>
+          <a:ext cx="7381875" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1743075"/>
+          <a:ext cx="4105275" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,19 +3637,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1136,7 +3704,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1160,49 +3728,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="19" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1213,14 +3770,197 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5"/>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5"/>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5"/>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1230,16 +3970,651 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="3:3">
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="3:3">
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="3:3">
+      <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="3:3">
+      <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="3:3">
+      <c r="C28" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="3:3">
+      <c r="C35" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="3:3">
+      <c r="C36" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="3:3">
+      <c r="C59" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A4:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="3:3">
+      <c r="C7" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="3:3">
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25"/>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="2:2">
+      <c r="B20" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="5"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,20 @@
     <t>第三步：consumer 调用 provider</t>
   </si>
   <si>
-    <t>第四步：consumer 和 provider 都异步通知监控中心</t>
+    <r>
+      <t>第四步：consumer 和 provider 都</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>异步通知监控中心</t>
+    </r>
   </si>
   <si>
     <t>序列化</t>
@@ -82,6 +95,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>默认</t>
     </r>
     <r>
@@ -160,6 +181,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用的场景是：</t>
     </r>
     <r>
@@ -282,6 +310,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>默认情况下，dubbo 是 random load balance ，即</t>
     </r>
     <r>
@@ -329,6 +364,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>会按照权重来负载均衡，</t>
     </r>
     <r>
@@ -358,6 +400,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个的话默认就是</t>
     </r>
     <r>
@@ -426,6 +475,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>所以此时需要</t>
     </r>
     <r>
@@ -530,6 +586,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个就是</t>
     </r>
     <r>
@@ -622,7 +685,17 @@
   </si>
   <si>
     <r>
-      <t>一致性 Hash 算法，相同参数的请求一定分发到一个 provider 上去，provider 挂掉的时候，会基于</t>
+      <t>一致性 Hash 算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，相同参数的请求一定分发到一个 provider 上去，provider 挂掉的时候，会基于</t>
     </r>
     <r>
       <rPr>
@@ -648,6 +721,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果你需要的不是随机负载均衡</t>
     </r>
     <r>
@@ -711,11 +792,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，默认就是这个，常见于读操作。（失败重试其它机器）</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>，默认就是这个，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常见于读操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。（失败重试其它机器）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -775,6 +883,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -834,6 +948,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -857,6 +977,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    &lt;</t>
     </r>
     <r>
@@ -952,6 +1078,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;/</t>
     </r>
     <r>
@@ -988,7 +1120,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，常见于非幂等性的写操作，比如新增一条记录（调用失败就立即失败）</t>
+      <t>，常见于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非幂等性的写操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如新增一条记录（调用失败就立即失败）</t>
     </r>
   </si>
   <si>
@@ -1011,6 +1164,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -1070,6 +1229,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -1132,6 +1297,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>失败了后台自动记录请求，然后定时重发</t>
     </r>
     <r>
@@ -1150,6 +1323,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>并行调用多个</t>
     </r>
     <r>
@@ -1192,6 +1373,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>逐个调用所有</t>
     </r>
     <r>
@@ -1237,6 +1426,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>service provider interface，说白了是什么意思呢，比如你有个接口，现在这个</t>
     </r>
     <r>
@@ -1263,6 +1459,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>那么在</t>
     </r>
     <r>
@@ -1331,6 +1534,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>去找到对应的实现类加载</t>
     </r>
     <r>
@@ -1370,6 +1581,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你有一个接口</t>
     </r>
     <r>
@@ -1417,6 +1635,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>那么在系统实际</t>
     </r>
     <r>
@@ -1463,6 +1688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>spi 经典的思想体现，大家平时都在用，比如说</t>
     </r>
     <r>
@@ -1489,6 +1721,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Java 定义了一套 jdbc 的接口</t>
     </r>
     <r>
@@ -1534,6 +1774,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在系统跑的时候，碰到你使用 jdbc 的接口，</t>
     </r>
     <r>
@@ -1566,6 +1813,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Protocol</t>
     </r>
     <r>
@@ -1694,7 +1947,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，将你配置的 Protocol 实现类，加载到 jvm 中来，然后实例化对象，就用你的那个 Protocol 实现类就可以了。</t>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将你配置的 Protocol 实现类，加载到 jvm 中来，然后实例化对象，就用你的那个 Protocol 实现类就可以了。</t>
     </r>
   </si>
   <si>
@@ -1735,6 +1999,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.2"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -1811,25 +2081,139 @@
     <t>服务降级</t>
   </si>
   <si>
-    <t>比如说服务 A 调用服务 B，结果服务 B 挂掉了，服务 A 重试几次调用服务 B，还是不行，那么直接降级，走一个备用的逻辑，给用户返回响应。</t>
+    <r>
+      <t>比如说服务 A 调用服务 B，结果服务 B 挂掉了，服务 A 重试几次调用服务 B，还是不行，那么</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接降级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>走一个备用的逻辑，给用户返回响应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>举个栗子，我们有接口 HelloService。HelloServiceImpl 有该接口的具体实现。</t>
   </si>
   <si>
-    <t>&lt;dubbo:reference id="fooService" interface="com.test.service.FooService"  timeout="10000" check="false" mock="return null"&gt;</t>
+    <r>
+      <t xml:space="preserve">&lt;dubbo:reference id="fooService" interface="com.test.service.FooService" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> timeout="10000" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">check="false" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mock="return null"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
   </si>
   <si>
     <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
   </si>
   <si>
-    <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，命名规则是 “接口名称+Mock” 后缀。然后在 Mock 类里实现自己的降级逻辑。</t>
+    <r>
+      <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命名规则是 “接口名称+Mock” 后缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。然后在 Mock 类里实现自己的降级逻辑。</t>
+    </r>
   </si>
   <si>
     <t>失败重试和超时重试</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">就是 </t>
     </r>
     <r>
@@ -1860,7 +2244,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF22863A"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1869,7 +2253,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1878,7 +2262,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1887,7 +2271,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1896,7 +2280,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF032F62"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1905,7 +2289,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1914,7 +2298,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1923,7 +2307,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1932,7 +2316,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF032F62"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1941,7 +2325,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1950,7 +2334,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1959,7 +2343,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1968,7 +2352,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF032F62"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1977,7 +2361,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1986,7 +2370,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -1995,7 +2379,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2004,7 +2388,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF032F62"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2013,7 +2397,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2022,7 +2406,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2031,7 +2416,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2040,7 +2426,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF032F62"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2049,7 +2436,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2058,7 +2446,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2067,7 +2456,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2076,7 +2466,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <b/>
+        <sz val="10"/>
         <color rgb="FF032F62"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2085,7 +2476,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.2"/>
+        <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -2113,6 +2504,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对于每个</t>
     </r>
     <r>
@@ -2160,6 +2558,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每次处理完请求之后，必须有一个记录</t>
     </r>
     <r>
@@ -2222,6 +2627,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">简单来说，首先你得用 </t>
     </r>
     <r>
@@ -2269,6 +2681,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>接着就是在那个机器上，因为</t>
     </r>
     <r>
@@ -2345,11 +2764,117 @@
     <t>自己设计一个类似 Dubbo 的 RPC 框架</t>
   </si>
   <si>
-    <t>上来你的服务就得去注册中心注册吧，你是不是得有个注册中心，保留各个服务的信息，可以用 zookeeper 来做，对吧。</t>
-  </si>
-  <si>
-    <r>
-      <t>然后你的</t>
+    <r>
+      <t>注册中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：上来你的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就得去</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册中心注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吧，你是不是得有个注册中心，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保留各个服务的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，可以用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zookeeper 来做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对吧。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>获取服务器信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：然后你的</t>
     </r>
     <r>
       <rPr>
@@ -2416,22 +2941,261 @@
     </r>
   </si>
   <si>
-    <t>接着你就该发起一次请求了，咋发起？当然是基于动态代理了，你面向接口获取到一个动态代理，</t>
+    <r>
+      <t>动态代理：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接着你就该发起一次请求了，咋发起？当然是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于动态代理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，你面向接口获取到一个动态代理，</t>
+    </r>
   </si>
   <si>
     <t>这个动态代理就是接口在本地的一个代理，然后这个代理会找到服务对应的机器地址。</t>
   </si>
   <si>
-    <t>然后找哪个机器发送请求？那肯定得有个负载均衡算法了，比如最简单的可以随机轮询是不是。</t>
-  </si>
-  <si>
-    <t>接着找到一台机器，就可以跟它发送请求了，第一个问题咋发送？你可以说用 netty 了，nio 方式</t>
-  </si>
-  <si>
-    <t>第二个问题发送啥格式数据？你可以说用 hessian 序列化协议了</t>
-  </si>
-  <si>
-    <t>服务器那边一样的，需要针对你自己的服务生成一个动态代理，监听某个网络端口了，然后代理你本地的服务代码。接收到请求的时候，就调用对应的服务代码，对吧。</t>
+    <r>
+      <t>接受请求的服务集群负载均衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：然后找哪个机器发送请求？那肯定得有个负载均衡算法了，比如最简单的可以随机轮询是不是。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>发请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：接着找到一台机器，就可以跟它发送请求了，第一个问题</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>咋发送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">？你可以说用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>netty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 了，nio 方式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>第二个问题发送啥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>格式数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">？你可以说用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hessian 序列化协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>服务端处理：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器那边一样的，需要针对你自己的服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成一个动态代理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监听某个网络端口了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代理你本地的服务代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。接</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收到请求的时候，就调用对应的服务代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对吧。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2439,12 +3203,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2468,46 +3232,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.2"/>
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2537,7 +3275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2551,52 +3289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2612,10 +3305,139 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF22863A"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF032F62"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.2"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.2"/>
@@ -2635,12 +3457,6 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10.2"/>
-      <color rgb="FFD73A49"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2657,7 +3473,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2675,145 +3635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2825,13 +3647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2842,15 +3658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2869,30 +3676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2904,15 +3687,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2934,6 +3708,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2942,157 +3734,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3108,7 +3924,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3333,7 +4155,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="1743075"/>
+          <a:off x="1371600" y="1714500"/>
           <a:ext cx="4105275" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3640,16 +4462,16 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +4526,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3724,7 +4546,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3773,13 +4595,13 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
@@ -3787,175 +4609,175 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="1"/>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="1"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="1"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="1"/>
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -3972,8 +4794,8 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:L49"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3982,7 +4804,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4052,12 +4874,12 @@
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4072,32 +4894,32 @@
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="3:3">
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="3:3">
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="3:3">
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="3:3">
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="3:3">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4107,9 +4929,12 @@
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
@@ -4117,17 +4942,17 @@
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="3:3">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="3:3">
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4137,7 +4962,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4147,7 +4972,7 @@
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4156,13 +4981,16 @@
         <v>79</v>
       </c>
     </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="7"/>
+    </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4188,8 +5016,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4213,7 +5041,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4253,7 +5081,7 @@
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4263,12 +5091,12 @@
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4288,12 +5116,12 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4313,12 +5141,12 @@
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4363,7 +5191,7 @@
       </c>
     </row>
     <row r="59" ht="14.25" spans="3:3">
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4404,8 +5232,8 @@
   <sheetPr/>
   <dimension ref="A4:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4419,7 +5247,7 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4428,19 +5256,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="3:3">
+    <row r="7" spans="3:3">
       <c r="C7" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="3:3">
+    <row r="8" spans="3:3">
       <c r="C8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" ht="14.25"/>
     <row r="10" spans="3:3">
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4454,7 +5281,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="2:2">
+    <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
         <v>131</v>
       </c>
@@ -4491,8 +5318,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4574,17 +5401,17 @@
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4594,22 +5421,22 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>157</v>
       </c>
     </row>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -67,6 +67,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第四步：consumer 和 provider 都</t>
     </r>
     <r>
@@ -685,6 +692,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一致性 Hash 算法</t>
     </r>
     <r>
@@ -761,6 +776,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>失败自动切换</t>
     </r>
     <r>
@@ -1110,6 +1133,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>一次调用失败就立即失败</t>
     </r>
     <r>
@@ -1149,6 +1180,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>出现异常时忽略掉</t>
     </r>
     <r>
@@ -1926,6 +1965,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>它会去</t>
     </r>
     <r>
@@ -2082,6 +2128,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>比如说服务 A 调用服务 B，结果服务 B 挂掉了，服务 A 重试几次调用服务 B，还是不行，那么</t>
     </r>
     <r>
@@ -2178,6 +2231,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
     </r>
     <r>
@@ -2240,6 +2300,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -2765,6 +2831,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注册中心</t>
     </r>
     <r>
@@ -2864,6 +2938,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>获取服务器信息</t>
     </r>
     <r>
@@ -2942,6 +3024,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>动态代理：</t>
     </r>
     <r>
@@ -2981,6 +3071,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>接受请求的服务集群负载均衡</t>
     </r>
     <r>
@@ -2996,6 +3094,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>发请求</t>
     </r>
     <r>
@@ -3053,6 +3159,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>第二个问题发送啥</t>
     </r>
     <r>
@@ -3100,6 +3213,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>服务端处理：</t>
     </r>
     <r>
@@ -3203,10 +3324,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3251,16 +3372,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3275,21 +3418,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3297,37 +3442,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3342,8 +3464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3357,6 +3480,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3365,24 +3495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3390,6 +3504,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3467,19 +3588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3491,31 +3606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3533,25 +3630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3563,7 +3660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3575,13 +3684,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,19 +3744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3623,31 +3756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3662,6 +3783,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3672,21 +3808,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3710,7 +3831,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3719,18 +3840,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3752,6 +3862,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3766,10 +3887,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3778,19 +3899,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3799,116 +3920,116 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3925,9 +4046,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4462,7 +4580,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4594,8 +4712,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4794,8 +4912,8 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:E49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4934,7 +5052,7 @@
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="6"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
@@ -4982,7 +5100,7 @@
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
@@ -5016,8 +5134,8 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5232,8 +5350,8 @@
   <sheetPr/>
   <dimension ref="A4:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5318,8 +5436,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="spi" sheetId="4" r:id="rId4"/>
     <sheet name="服务治理" sheetId="5" r:id="rId5"/>
     <sheet name="生产问题" sheetId="6" r:id="rId6"/>
+    <sheet name="面试" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="282">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -2185,120 +2186,43 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">&lt;dubbo:reference id="fooService" interface="com.test.service.FooService" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> timeout="10000" </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">&lt;dubbo:reference id="fooService" interface="com.test.service.FooService" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">check="false" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> timeout="10000" </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>mock="return null"</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">check="false" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>命名规则是 “接口名称+Mock” 后缀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。然后在 Mock 类里实现自己的降级逻辑。</t>
-    </r>
-  </si>
-  <si>
-    <t>失败重试和超时重试</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">就是 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>consumer 调用 provider 要是失败了，比如抛异常了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，此时应该是可以重试的，或者调用超时了也可以重试。配置如下：</t>
-    </r>
-  </si>
-  <si>
+      <t>mock="return null"</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2306,6 +2230,89 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命名规则是 “接口名称+Mock” 后缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。然后在 Mock 类里实现自己的降级逻辑。</t>
+    </r>
+  </si>
+  <si>
+    <t>失败重试和超时重试</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">就是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumer 调用 provider 要是失败了，比如抛异常了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此时应该是可以重试的，或者调用超时了也可以重试。配置如下：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -3317,6 +3324,814 @@
       </rPr>
       <t>，对吧。</t>
     </r>
+  </si>
+  <si>
+    <t>Dubbo 和 Spring Cloud 有什么区别？</t>
+  </si>
+  <si>
+    <t>通信方式不同</t>
+  </si>
+  <si>
+    <t>Dubbo 使用的是 RPC 通信</t>
+  </si>
+  <si>
+    <t>Spring Cloud 使用的是 HTTP RESTFul 方式。</t>
+  </si>
+  <si>
+    <t>组成部分不同</t>
+  </si>
+  <si>
+    <t>dubbo都支持什么协议，推荐用哪种？</t>
+  </si>
+  <si>
+    <t>dubbo://（推荐）</t>
+  </si>
+  <si>
+    <t>rmi://</t>
+  </si>
+  <si>
+    <t>hessian://</t>
+  </si>
+  <si>
+    <t>http://</t>
+  </si>
+  <si>
+    <t>webservice://</t>
+  </si>
+  <si>
+    <t>thrift://</t>
+  </si>
+  <si>
+    <t>memcached://</t>
+  </si>
+  <si>
+    <t>redis://</t>
+  </si>
+  <si>
+    <t>rest://</t>
+  </si>
+  <si>
+    <t>Dubbo需要 Web 容器吗？</t>
+  </si>
+  <si>
+    <t>不需要,因为服务通常不需要Tomcat/JBoss等Web容器的特性，没必要用Web容器去加载服务。</t>
+  </si>
+  <si>
+    <t>Dubbo内置了哪几种服务容器？</t>
+  </si>
+  <si>
+    <t>Spring Container 自动加载META-INF/spring目录下的所有Spring配置</t>
+  </si>
+  <si>
+    <t>Jetty Container 用于汇报状态</t>
+  </si>
+  <si>
+    <t>Log4j Container 自动给日志文件按进程分目录</t>
+  </si>
+  <si>
+    <r>
+      <t>Dubbo 的服务容器只是一个简单的 Main 方法，并加载一个简单的 Spring 容器，用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暴露服务。</t>
+    </r>
+  </si>
+  <si>
+    <t>Dubbo里面有哪几种节点角色？</t>
+  </si>
+  <si>
+    <t>画一画服务注册与发现的流程图</t>
+  </si>
+  <si>
+    <t>Dubbo默认使用什么注册中心，还有别的选择吗？</t>
+  </si>
+  <si>
+    <t>推荐使用 Zookeeper 作为注册中心，还有 Redis、Multicast、Simple 注册中心，但不推荐。</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种配置方式？</t>
+  </si>
+  <si>
+    <t>XML 配置文件方式</t>
+  </si>
+  <si>
+    <t>properties 配置文件方式</t>
+  </si>
+  <si>
+    <t>annotation 配置方式</t>
+  </si>
+  <si>
+    <t>Java API 配置方式</t>
+  </si>
+  <si>
+    <t>DUBBO 在读取配置的时候会先读取 XML文件中的配置，如果没找到就会默认去读取resources目录下的 dubbo.properties 文件</t>
+  </si>
+  <si>
+    <t>Dubbo 核心的配置有哪些？</t>
+  </si>
+  <si>
+    <t>在 Provider 上可以配置的 Consumer 端的属性有哪些？</t>
+  </si>
+  <si>
+    <t>timeout：方法调用超时</t>
+  </si>
+  <si>
+    <t>retries：失败重试次数，默认重试 2 次</t>
+  </si>
+  <si>
+    <t>loadbalance：负载均衡算法，默认随机</t>
+  </si>
+  <si>
+    <t>actives 消费者端，最大并发调用限制</t>
+  </si>
+  <si>
+    <t>Dubbo启动时如果依赖的服务不可用会怎样？</t>
+  </si>
+  <si>
+    <t>Dubbo 缺省会在启动时检查依赖的服务是否可用，不可用时会抛出异常，阻止 Spring 初始化完成，默认 check="true"，可以通过 check="false" 关闭检查。</t>
+  </si>
+  <si>
+    <t>Dubbo推荐使用什么序列化框架，你知道的还有哪些？</t>
+  </si>
+  <si>
+    <t>推荐使用Hessian序列化，还有Duddo、FastJson、Java自带序列化。</t>
+  </si>
+  <si>
+    <t>Dubbo默认使用的是什么通信框架，还有别的选择吗？</t>
+  </si>
+  <si>
+    <t>Dubbo 默认使用 Netty 框架，也是推荐的选择，另外内容还集成有Mina、Grizzly。</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种集群容错方案，默认是哪种？</t>
+  </si>
+  <si>
+    <t>Dubbo有哪几种负载均衡策略，默认是哪种？</t>
+  </si>
+  <si>
+    <t>注册了多个同一样的服务，如果测试指定的某一个服务呢？</t>
+  </si>
+  <si>
+    <r>
+      <t>可以配置环境</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点对点直连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绕过注册中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将以服务接口为单位，忽略注册中心的提供者列表。</t>
+    </r>
+  </si>
+  <si>
+    <t>Dubbo支持服务多协议吗？</t>
+  </si>
+  <si>
+    <t>Dubbo 允许配置多协议，在不同服务上支持不同协议或者同一服务上同时支持多种协议。</t>
+  </si>
+  <si>
+    <t>当一个服务接口有多种实现时怎么做？</t>
+  </si>
+  <si>
+    <t>当一个接口有多种实现时，可以用 group 属性来分组，服务提供方和消费方都指定同一个 group 即可。</t>
+  </si>
+  <si>
+    <t>service中的dubbo配置： spring-dubbo.xml:</t>
+  </si>
+  <si>
+    <t>&lt;dubbo:provider timeout="3000" group ="${dubbo.gra.group}"/&gt;</t>
+  </si>
+  <si>
+    <t>dubbo.properties:</t>
+  </si>
+  <si>
+    <t>dubbo.gra.group=ls</t>
+  </si>
+  <si>
+    <t>web中的dubbo配置： spring-dubbo.xml:</t>
+  </si>
+  <si>
+    <t>&lt;dubbo:consumer check="false" timeout="100000" group ="${dubbo.gra.group}"/&gt;</t>
+  </si>
+  <si>
+    <t>服务上线怎么兼容旧版本？</t>
+  </si>
+  <si>
+    <t>可以用版本号（version）过渡，多个不同版本的服务注册到注册中心，版本号不同的服务相互间不引用。这个和服务分组的概念有一点类似。</t>
+  </si>
+  <si>
+    <t>服务端配置</t>
+  </si>
+  <si>
+    <t>applicationContext.xml配置：</t>
+  </si>
+  <si>
+    <t>&lt;bean id="serviceVersion1" class="com.dubbosample.service.impl.DubbodoSomething1ServiceImpl"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;bean id="serviceVersion2" class="com.dubbosample.service.impl.DubbodoSomething2ServiceImpl"/&gt;</t>
+  </si>
+  <si>
+    <t>dubbo.xml配置：</t>
+  </si>
+  <si>
+    <t>&lt;dubbo:service ref="serviceVersion1" interface="com.dubbosample.service.IDubbodoSomethingService" protocol="dubbo,rmi" version="1.0.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dubbo:service ref="serviceVersion2" interface="com.dubbosample.service.IDubbodoSomethingService" protocol="dubbo,rmi" version="1.0.1"/&gt;</t>
+  </si>
+  <si>
+    <t>客户端配置</t>
+  </si>
+  <si>
+    <t>applicationContext.xml 配置：</t>
+  </si>
+  <si>
+    <t>&lt;!-- 引入配置文件 --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;import resource="classpath:dubbo.xml"/&gt;</t>
+  </si>
+  <si>
+    <t>dubbo.xml 配置：</t>
+  </si>
+  <si>
+    <t>&lt;dubbo:reference id="serviceVersion1" interface="com.dubbosample.service.IDubbodoSomethingService" protocol="dubbo" version="1.0.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dubbo:reference id="serviceVersion2" interface="com.dubbosample.service.IDubbodoSomethingService" protocol="dubbo" version="1.0.1"/&gt;</t>
+  </si>
+  <si>
+    <t>Dubbo可以对结果进行缓存吗？</t>
+  </si>
+  <si>
+    <t>可以，Dubbo 提供了声明式缓存，用于加速热门数据的访问速度，以减少用户加缓存的工作量。</t>
+  </si>
+  <si>
+    <t>服务端配置文件</t>
+  </si>
+  <si>
+    <t>服务消费者配置文件</t>
+  </si>
+  <si>
+    <t>Dubbo服务之间的调用是阻塞的吗？</t>
+  </si>
+  <si>
+    <t>默认是同步等待结果阻塞的，支持异步调用。</t>
+  </si>
+  <si>
+    <r>
+      <t>Dubbo 是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NIO 的非阻塞实现并行调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端不需要启动多线程即可完成并行调用多个远程服务</t>
+    </r>
+  </si>
+  <si>
+    <t>，相对多线程开销较小，异步调用会返回一个 Future 对象。</t>
+  </si>
+  <si>
+    <t>Dubbo支持分布式事务吗？</t>
+  </si>
+  <si>
+    <t>目前暂时不支持，后续可能采用基于 JTA/XA 规范实现</t>
+  </si>
+  <si>
+    <t>Dubbo telnet 命令能做什么？</t>
+  </si>
+  <si>
+    <t>dubbo 通过 telnet 命令来进行服务治理</t>
+  </si>
+  <si>
+    <t>telnet localhost 8090 //测试对应IP和端口下的dubbo服务是否连通</t>
+  </si>
+  <si>
+    <t>Dubbo支持服务降级吗？</t>
+  </si>
+  <si>
+    <t>Dubbo 2.2.0 以上版本支持。</t>
+  </si>
+  <si>
+    <t>Dubbo如何优雅停机</t>
+  </si>
+  <si>
+    <t>优雅停机主要用在服务版本迭代上线的过程中</t>
+  </si>
+  <si>
+    <t>比如我们发布了新的服务版本，经常性是直接替换线上正在跑的服务</t>
+  </si>
+  <si>
+    <t>这个时候如果在服务切换的过程中老的服务没有正常关闭的话，容易造成内存清理问题</t>
+  </si>
+  <si>
+    <t>Dubbo 是通过 JDK 的 ShutdownHook 来完成优雅停机的</t>
+  </si>
+  <si>
+    <t>服务提供者能实现失效踢出是什么原理？</t>
+  </si>
+  <si>
+    <t>服务失效踢出基于 Zookeeper 的临时节点原理。</t>
+  </si>
+  <si>
+    <t>如何解决服务调用链过长的问题？</t>
+  </si>
+  <si>
+    <t>Dubbo 可以使用 Pinpoint 和 Apache Skywalking(Incubator) 实现分布式服务追踪</t>
+  </si>
+  <si>
+    <r>
+      <t>Apache Skywalking(Incubator)：专门为微服务架构和云原生架构系统而设计并且支持</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分布式链路追踪的APM(应用性能管理)系统</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载探针的方式收集应用调用链路信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采集的调用链路信息进行分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成应用间关系和服务间关系以及服务指标</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pinpoint是一个开源的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APM (应用性能管理)工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于基于java的大规模分布式系统</t>
+    </r>
+  </si>
+  <si>
+    <t>服务读写推荐的容错策略是怎样的？</t>
+  </si>
+  <si>
+    <r>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">操作建议使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failover 失败自动切换，默认重试两次其他服务器。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作建议使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Failfast 快速失败，发一次调用失败就立即报错。</t>
+    </r>
+  </si>
+  <si>
+    <t>Dubbo必须依赖的包有哪些？</t>
+  </si>
+  <si>
+    <t>Dubbo 必须依赖 JDK</t>
+  </si>
+  <si>
+    <t>Dubbo的管理控制台能做什么？</t>
+  </si>
+  <si>
+    <r>
+      <t>管理控制台主要包含：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路由规则，动态配置，服务降级，访问控制，权重调整，负载均衡，等管理功能。</t>
+    </r>
+  </si>
+  <si>
+    <t>说说 Dubbo 服务暴露的过程。</t>
+  </si>
+  <si>
+    <t>简易的暴露流程</t>
+  </si>
+  <si>
+    <r>
+      <t>首先将服务的实现封装成一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Invoker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Invoker中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封装了服务的实现类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>将Invoker</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封装成Exporter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存起来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存里使用Invoker的url作为key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>服务端Server启动，监听端口。</t>
+  </si>
+  <si>
+    <r>
+      <t>请求来到时，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求信息生成key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存查找Exporter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找到了Invoker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就可以完成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Dubbo 停止维护了吗？</t>
+  </si>
+  <si>
+    <t>2014 年开始停止维护过几年，17 年开始重新维护，并进入了 Apache 项目。</t>
+  </si>
+  <si>
+    <t>Dubbo 和 Dubbox 有什么区别？</t>
+  </si>
+  <si>
+    <t>Dubbox 是继 Dubbo 停止维护后，当当网基于 Dubbo 做的一个扩展项目，如加了服务可 Restful 调用，更新了开源组件等。</t>
+  </si>
+  <si>
+    <t>你还了解别的分布式框架吗？</t>
+  </si>
+  <si>
+    <t>Spring cloud、Facebook 的 Thrift、Twitter 的 Finagle 等。</t>
+  </si>
+  <si>
+    <t>Dubbo 能集成 Spring Boot 吗？</t>
+  </si>
+  <si>
+    <t>可以的</t>
+  </si>
+  <si>
+    <t>在使用过程中都遇到了些什么问题？</t>
+  </si>
+  <si>
+    <t>Dubbo 的设计目的是为了满足高并发小数据量的 rpc 调用，在大数据量下的性能表现并不好，建议使用 rmi 或 http 协议。</t>
   </si>
 </sst>
 </file>
@@ -3324,9 +4139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -3372,50 +4187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3425,24 +4196,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3456,27 +4211,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3487,7 +4241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3503,7 +4263,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3511,6 +4318,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3588,25 +4403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3618,103 +4439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3732,7 +4457,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3744,31 +4541,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3793,6 +4608,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3829,53 +4686,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3887,10 +4702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3899,147 +4714,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4275,6 +5093,473 @@
         <a:xfrm>
           <a:off x="1371600" y="1714500"/>
           <a:ext cx="4105275" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="1143000"/>
+          <a:ext cx="5524500" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="9305925"/>
+          <a:ext cx="4572000" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="12372975"/>
+          <a:ext cx="4184015" cy="2591435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="17287875"/>
+          <a:ext cx="4686300" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="17259300"/>
+          <a:ext cx="5267325" cy="5038725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="25374600"/>
+          <a:ext cx="5200650" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="28632150"/>
+          <a:ext cx="5781675" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="40119300"/>
+          <a:ext cx="5838825" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="31727775"/>
+          <a:ext cx="3829050" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="37928550"/>
+          <a:ext cx="5553075" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="38747700"/>
+          <a:ext cx="7743825" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4580,16 +5865,16 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4644,7 +5929,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4712,14 +5997,14 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
@@ -4727,175 +6012,175 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -4918,11 +6203,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4992,17 +6277,17 @@
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5012,32 +6297,32 @@
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="3:3">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="3:3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="3:3">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="3:3">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="3:3">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -5047,12 +6332,12 @@
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
@@ -5060,17 +6345,17 @@
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="3:3">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="3:3">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5080,7 +6365,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5090,7 +6375,7 @@
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5100,7 +6385,7 @@
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
@@ -5108,12 +6393,12 @@
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5134,17 +6419,17 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5159,7 +6444,7 @@
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5189,7 +6474,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5199,7 +6484,7 @@
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5209,12 +6494,12 @@
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5224,7 +6509,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5234,12 +6519,12 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:2">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5259,12 +6544,12 @@
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5289,7 +6574,7 @@
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5309,7 +6594,7 @@
       </c>
     </row>
     <row r="59" ht="14.25" spans="3:3">
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5350,17 +6635,17 @@
   <sheetPr/>
   <dimension ref="A4:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5375,7 +6660,7 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5390,7 +6675,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5400,7 +6685,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5436,17 +6721,17 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B1" t="s">
@@ -5454,7 +6739,7 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5479,7 +6764,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5514,22 +6799,22 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5539,12 +6824,12 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5554,7 +6839,7 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5562,4 +6847,648 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D303"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="H307" sqref="H307"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="342">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -3374,34 +3374,612 @@
     <t>Dubbo需要 Web 容器吗？</t>
   </si>
   <si>
-    <t>不需要,因为服务通常不需要Tomcat/JBoss等Web容器的特性，没必要用Web容器去加载服务。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不需要,因为服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通常不需要Tomcat/JBoss等Web容器的特性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，没必要用Web容器去加载服务。</t>
+    </r>
   </si>
   <si>
     <t>Dubbo内置了哪几种服务容器？</t>
   </si>
   <si>
-    <t>Spring Container 自动加载META-INF/spring目录下的所有Spring配置</t>
-  </si>
-  <si>
-    <t>Jetty Container 用于汇报状态</t>
-  </si>
-  <si>
-    <t>Log4j Container 自动给日志文件按进程分目录</t>
-  </si>
-  <si>
-    <r>
-      <t>Dubbo 的服务容器只是一个简单的 Main 方法，并加载一个简单的 Spring 容器，用于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>暴露服务。</t>
+    <t>SpringContainer、Log4jContainer、JettyContainer、JavaConfigContainer、LogbackContainer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Spring Container </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动加载META-INF/spring目录下的所有Spring配置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.Jetty Container </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于汇报状态</t>
+    </r>
+  </si>
+  <si>
+    <t>启动一个内嵌Jetty，用于汇报状态。</t>
+  </si>
+  <si>
+    <r>
+      <t>dubbo.jetty.port=8080 ----配置jetty</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动端口</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dubbo.jetty.directory=/foo/bar ----配置可通过jetty</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接访问的目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于存放静态文件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dubbo.jetty.page=log,status,system ----</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置显示的页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，缺省加载所有页面</t>
+    </r>
+  </si>
+  <si>
+    <t>3.Log4j Container 自动给日志文件按进程分目录</t>
+  </si>
+  <si>
+    <r>
+      <t>自动配置log4j的配置，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在多进程启动时，自动给日志文件按进程分目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dubbo.log4j.file=/foo/bar.log ----配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日志文件路径</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dubbo.log4j.level=WARN ----配置日志</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级别</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dubbo.log4j.subdirectory=20880 ----配置日志</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子目录，用于多进程启动，避免冲突</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dubbo 服务容器作用是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于暴露服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>容器启动</t>
+  </si>
+  <si>
+    <t>通过com.alibaba.dubbo.container.Container接口上的注解@SPI("spring")来选择具体实现的容器类型</t>
+  </si>
+  <si>
+    <t>容器停止原理</t>
+  </si>
+  <si>
+    <t>Dubbo是通过JDK的ShutdownHook来完成优雅停机的</t>
+  </si>
+  <si>
+    <t>服务提供方</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停止时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先标记为不接收新请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新请求过来时直接报错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>让客户端重试其它机器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检测线程池中的线程是否正在运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有，等待所有线程执行完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，除非超时，则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>强制关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>服务消费方</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不再发起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新的调</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新的调用在客户端即报错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有没有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求的响应还没有返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等待响应返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，除非超时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则强制关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -3426,7 +4004,7 @@
     <t>properties 配置文件方式</t>
   </si>
   <si>
-    <t>annotation 配置方式</t>
+    <t>annotation 注解方式  &lt;dubbo:reference&gt;  节点换成 &lt;dubbo:annotation&gt; 节点，然后扫描注解包路径&lt;dubbo:annotation package="com.chanshuyi" /&gt;</t>
   </si>
   <si>
     <t>Java API 配置方式</t>
@@ -3438,6 +4016,255 @@
     <t>Dubbo 核心的配置有哪些？</t>
   </si>
   <si>
+    <t>dubbo:service</t>
+  </si>
+  <si>
+    <r>
+      <t>服务提供者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暴露服务配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:reference</t>
+  </si>
+  <si>
+    <r>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消费者引用服务配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:protocol</t>
+  </si>
+  <si>
+    <r>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提供者协议配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支持多协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以声明多个 &lt;dubbo:protocol&gt; 标签</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:registry</t>
+  </si>
+  <si>
+    <r>
+      <t>注册中心配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果有多个不同的注册中心，可以声明多个 &lt;dubbo:registry&gt; 标签</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:monitor</t>
+  </si>
+  <si>
+    <r>
+      <t>监控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:application</t>
+  </si>
+  <si>
+    <t>应用信息配置</t>
+  </si>
+  <si>
+    <t>dubbo:module</t>
+  </si>
+  <si>
+    <r>
+      <t>模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信息配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:provider</t>
+  </si>
+  <si>
+    <r>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提供者缺省值配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:consumer</t>
+  </si>
+  <si>
+    <r>
+      <t>服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消费者缺省值配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:method</t>
+  </si>
+  <si>
+    <r>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:argument</t>
+  </si>
+  <si>
+    <r>
+      <t>方法参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:parameter</t>
+  </si>
+  <si>
+    <r>
+      <t>选项参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置</t>
+    </r>
+  </si>
+  <si>
+    <t>dubbo:config-center</t>
+  </si>
+  <si>
+    <t>配置中心</t>
+  </si>
+  <si>
+    <t>http://dubbo.apache.org/zh-cn/docs/user/references/xml/dubbo-config-center.html</t>
+  </si>
+  <si>
     <t>在 Provider 上可以配置的 Consumer 端的属性有哪些？</t>
   </si>
   <si>
@@ -3456,7 +4283,103 @@
     <t>Dubbo启动时如果依赖的服务不可用会怎样？</t>
   </si>
   <si>
-    <t>Dubbo 缺省会在启动时检查依赖的服务是否可用，不可用时会抛出异常，阻止 Spring 初始化完成，默认 check="true"，可以通过 check="false" 关闭检查。</t>
+    <r>
+      <t>Dubbo 缺省会在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动时检查依赖的服务是否可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不可用时会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抛出异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阻止 Spring 初始化完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>默认 check="true"，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过 check="false" 关闭检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>Dubbo推荐使用什么序列化框架，你知道的还有哪些？</t>
@@ -3465,6 +4388,454 @@
     <t>推荐使用Hessian序列化，还有Duddo、FastJson、Java自带序列化。</t>
   </si>
   <si>
+    <t>hessian使用自己编写的io,序列化工具进行序列化，在发送数据时，对数据序列化成字节流保存到二进制文件</t>
+  </si>
+  <si>
+    <r>
+      <t>hessian序列化比Java序列化高效很多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而且生成的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字节流也要短很多</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对来说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有Java序列化可靠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而且也</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不如Java序列化支持的全面</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而hessian序列化，它的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是着</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重于数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>附带简单的类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信息的方法。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>就像</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer a = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，hessian会序列化成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样的流，I表示int or Integer，1就是数据内容。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复杂对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java的反射机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hessian把对象所有的属性当成一个Map来序列化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包含了基本的类型描述和数据内容。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>序列化过程中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个对象之前出现过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，hessian</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会直接插入一个R index这样的块来表示一个引用位置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>从而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>省去再次序列化和反序列化的时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这样做的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代价就是hessian需要对不同的类型进行不同的处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（因此hessian直接偷懒不支持short），而且遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>某些特殊对象还要做特殊的处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同时因为并没有深入到实现内部去进行序列化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>某些场合会发生一定的不一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如通过Collections</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.synchronizedMap得到的map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
     <t>Dubbo默认使用的是什么通信框架，还有别的选择吗？</t>
   </si>
   <si>
@@ -3523,14 +4894,90 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，将以服务接口为单位，忽略注册中心的提供者列表。</t>
+      <t>，将以服务接口为单位，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忽略注册中心的提供者列表。</t>
     </r>
   </si>
   <si>
     <t>Dubbo支持服务多协议吗？</t>
   </si>
   <si>
-    <t>Dubbo 允许配置多协议，在不同服务上支持不同协议或者同一服务上同时支持多种协议。</t>
+    <r>
+      <t>Dubbo 允许</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置多协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同服务上支持不同协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同一服务上同时支持多种协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>当一个服务接口有多种实现时怎么做？</t>
@@ -3560,7 +5007,103 @@
     <t>服务上线怎么兼容旧版本？</t>
   </si>
   <si>
-    <t>可以用版本号（version）过渡，多个不同版本的服务注册到注册中心，版本号不同的服务相互间不引用。这个和服务分组的概念有一点类似。</t>
+    <r>
+      <t>可以用版本号（version）过渡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个不同版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册到注册中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>版本号不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的服务相</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>互间不引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。这个和服务分组的概念有一点类似。</t>
+    </r>
   </si>
   <si>
     <t>服务端配置</t>
@@ -3608,7 +5151,57 @@
     <t>Dubbo可以对结果进行缓存吗？</t>
   </si>
   <si>
-    <t>可以，Dubbo 提供了声明式缓存，用于加速热门数据的访问速度，以减少用户加缓存的工作量。</t>
+    <r>
+      <t>可以，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dubbo 提供了声明式缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目的是用于加速热门数据的访问速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以减少用户加缓存的工作量。</t>
+    </r>
+  </si>
+  <si>
+    <t>服务提供者接口</t>
+  </si>
+  <si>
+    <t>服务提供者接口实现类</t>
   </si>
   <si>
     <t>服务端配置文件</t>
@@ -3712,6 +5305,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Apache Skywalking(Incubator)：专门为微服务架构和云原生架构系统而设计并且支持</t>
     </r>
     <r>
@@ -3728,6 +5328,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通过</t>
     </r>
     <r>
@@ -3786,6 +5393,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Pinpoint是一个开源的 </t>
     </r>
     <r>
@@ -3815,6 +5429,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>读</t>
     </r>
     <r>
@@ -3841,6 +5463,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>写</t>
     </r>
     <r>
@@ -3876,6 +5506,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>管理控制台主要包含：</t>
     </r>
     <r>
@@ -3898,6 +5535,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>首先将服务的实现封装成一个</t>
     </r>
     <r>
@@ -3945,6 +5589,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将Invoker</t>
     </r>
     <r>
@@ -4016,6 +5667,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请求来到时，根据</t>
     </r>
     <r>
@@ -4158,6 +5816,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4189,15 +5855,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4211,16 +5936,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4235,43 +5960,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4284,40 +5973,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4409,19 +6067,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4433,7 +6145,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4451,31 +6187,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4487,103 +6235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4621,25 +6279,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4648,8 +6297,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4669,16 +6318,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4702,10 +6360,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4714,133 +6372,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4851,13 +6509,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4867,6 +6522,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5156,13 +6814,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5180,7 +6838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="9305925"/>
+          <a:off x="638175" y="13249275"/>
           <a:ext cx="4572000" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5198,13 +6856,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145415</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5222,7 +6880,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="12372975"/>
+          <a:off x="762000" y="16316325"/>
           <a:ext cx="4184015" cy="2591435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5239,19 +6897,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5264,91 +6922,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="17287875"/>
-          <a:ext cx="4686300" cy="5000625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="17259300"/>
-          <a:ext cx="5267325" cy="5038725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="25374600"/>
+          <a:off x="685800" y="28460700"/>
           <a:ext cx="5200650" cy="2914650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5366,13 +6940,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5383,14 +6957,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="28632150"/>
+          <a:off x="685800" y="31718250"/>
           <a:ext cx="5781675" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5408,13 +6982,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5425,14 +6999,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="40119300"/>
+          <a:off x="685800" y="46120050"/>
           <a:ext cx="5838825" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5450,13 +7024,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5467,14 +7041,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="31727775"/>
+          <a:off x="695325" y="34813875"/>
           <a:ext cx="3829050" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5491,15 +7065,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5509,14 +7083,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="37928550"/>
+          <a:off x="1323975" y="43919775"/>
           <a:ext cx="5553075" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5533,19 +7107,103 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="44777025"/>
+          <a:ext cx="7743825" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="40805100"/>
+          <a:ext cx="2333625" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5558,8 +7216,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="38747700"/>
-          <a:ext cx="7743825" cy="485775"/>
+          <a:off x="1371600" y="42005250"/>
+          <a:ext cx="6515100" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5870,11 +7528,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5929,7 +7587,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5949,7 +7607,7 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6004,7 +7662,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
@@ -6012,175 +7670,175 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="C16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -6203,11 +7861,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6217,12 +7875,12 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6232,12 +7890,12 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6267,7 +7925,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6277,17 +7935,17 @@
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6297,7 +7955,7 @@
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6332,12 +7990,12 @@
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="2"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
@@ -6345,7 +8003,7 @@
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6365,7 +8023,7 @@
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6375,7 +8033,7 @@
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6393,12 +8051,12 @@
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6425,26 +8083,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6454,12 +8112,12 @@
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -6474,17 +8132,17 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6494,22 +8152,22 @@
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6524,12 +8182,12 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6544,12 +8202,12 @@
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6574,7 +8232,7 @@
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6641,16 +8299,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6670,17 +8328,17 @@
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6727,7 +8385,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
@@ -6739,17 +8397,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6764,7 +8422,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6779,12 +8437,12 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6799,22 +8457,22 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6824,22 +8482,22 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6852,19 +8510,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="H307" sqref="H307"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6944,7 +8602,7 @@
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6958,535 +8616,863 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
+    <row r="53" spans="2:3">
+      <c r="B53" s="2"/>
+      <c r="C53" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="2:3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+    <row r="55" spans="2:3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+    <row r="56" spans="2:3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
+    <row r="58" spans="3:3">
+      <c r="C58" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
+    <row r="60" spans="3:3">
+      <c r="C60" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
+    <row r="61" spans="3:3">
+      <c r="C61" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="67" spans="2:3">
+      <c r="B67" s="2"/>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="2"/>
+      <c r="C71" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" t="s">
+        <v>210</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" t="s">
+        <v>212</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" t="s">
+        <v>214</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
+        <v>220</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>222</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" t="s">
+        <v>226</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
       <c r="B134" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
+        <v>230</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
       <c r="B135" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
+        <v>232</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
       <c r="B136" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
-        <v>195</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E137" s="1"/>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
-        <v>198</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="193" spans="3:3">
-      <c r="C193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="195" spans="3:3">
-      <c r="C195" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3">
-      <c r="C197" t="s">
-        <v>215</v>
+      <c r="B146" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="202" spans="3:3">
-      <c r="C202" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="203" spans="4:4">
-      <c r="D203" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="204" spans="4:4">
-      <c r="D204" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="205" spans="3:3">
-      <c r="C205" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="206" spans="4:4">
-      <c r="D206" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="207" spans="4:4">
-      <c r="D207" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4">
-      <c r="D210" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="211" spans="4:4">
-      <c r="D211" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="212" spans="3:3">
-      <c r="C212" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="213" spans="4:4">
-      <c r="D213" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="214" spans="4:4">
-      <c r="D214" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="1" t="s">
-        <v>232</v>
+      <c r="B200" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="2" t="s">
-        <v>234</v>
+      <c r="B219" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="2:2">
-      <c r="B226" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="234" spans="3:3">
-      <c r="C234" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="B226" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="2:2">
-      <c r="B248" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2">
-      <c r="B255" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2">
-      <c r="B258" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2">
-      <c r="B259" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2">
-      <c r="B260" t="s">
-        <v>250</v>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264" t="s">
-        <v>253</v>
+      <c r="B261" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
     </row>
     <row r="268" spans="2:2">
-      <c r="B268" s="3" t="s">
-        <v>256</v>
+      <c r="B268" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="269" spans="3:3">
-      <c r="C269" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2">
-      <c r="B270" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271" s="3"/>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2">
-      <c r="B273" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="3" t="s">
-        <v>265</v>
+      <c r="C269" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="284" spans="3:3">
-      <c r="C284" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="285" spans="3:3">
-      <c r="C285" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="286" spans="3:3">
-      <c r="C286" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="287" spans="3:3">
-      <c r="C287" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2">
-      <c r="B291" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="1" t="s">
-        <v>274</v>
+      <c r="B283" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2">
-      <c r="B297" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="1" t="s">
-        <v>280</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" t="s">
-        <v>281</v>
+      <c r="B303" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B137" r:id="rId2" display="http://dubbo.apache.org/zh-cn/docs/user/references/xml/dubbo-config-center.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="367">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -2129,13 +2129,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>比如说服务 A 调用服务 B，结果服务 B 挂掉了，服务 A 重试几次调用服务 B，还是不行，那么</t>
     </r>
     <r>
@@ -2186,43 +2179,113 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t xml:space="preserve">&lt;dubbo:reference id="fooService" interface="com.test.service.FooService" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">&lt;dubbo:reference id="fooService" interface="com.test.service.FooService" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> timeout="10000" </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> timeout="10000" </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">check="false" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">check="false" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>mock="return null"</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>mock="return null"</t>
-    </r>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
+  </si>
+  <si>
+    <r>
+      <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命名规则是 “接口名称+Mock” 后缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。然后在 Mock 类里实现自己的降级逻辑。</t>
+    </r>
+  </si>
+  <si>
+    <t>失败重试和超时重试</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">就是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumer 调用 provider 要是失败了，比如抛异常了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此时应该是可以重试的，或者调用超时了也可以重试。配置如下：</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2230,82 +2293,17 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>命名规则是 “接口名称+Mock” 后缀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。然后在 Mock 类里实现自己的降级逻辑。</t>
-    </r>
-  </si>
-  <si>
-    <t>失败重试和超时重试</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">就是 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>consumer 调用 provider 要是失败了，比如抛异常了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，此时应该是可以重试的，或者调用超时了也可以重试。配置如下：</t>
-    </r>
-  </si>
-  <si>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF22863A"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dubbo:reference</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2313,16 +2311,16 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF22863A"/>
+        <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>dubbo:reference</t>
+      <t>id</t>
     </r>
     <r>
       <rPr>
@@ -2331,6 +2329,24 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"xxxx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -2340,7 +2356,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>id</t>
+      <t>interface</t>
     </r>
     <r>
       <rPr>
@@ -2358,7 +2374,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>"xxxx"</t>
+      <t>"xx"</t>
     </r>
     <r>
       <rPr>
@@ -2376,7 +2392,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>interface</t>
+      <t>check</t>
     </r>
     <r>
       <rPr>
@@ -2394,7 +2410,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>"xx"</t>
+      <t>"true"</t>
     </r>
     <r>
       <rPr>
@@ -2412,7 +2428,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>check</t>
+      <t>async</t>
     </r>
     <r>
       <rPr>
@@ -2430,7 +2446,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>"true"</t>
+      <t>"false"</t>
     </r>
     <r>
       <rPr>
@@ -2443,15 +2459,17 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF6F42C1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>async</t>
-    </r>
-    <r>
-      <rPr>
+      <t>retries</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
@@ -2461,15 +2479,17 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF032F62"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>"false"</t>
-    </r>
-    <r>
-      <rPr>
+      <t>"3"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
@@ -2485,7 +2505,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>retries</t>
+      <t>timeout</t>
     </r>
     <r>
       <rPr>
@@ -2505,55 +2525,15 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>"3"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>"2000"</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF6F42C1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>timeout</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF032F62"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"2000"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>/&gt;</t>
     </r>
   </si>
@@ -3414,6 +3394,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">1.Spring Container </t>
     </r>
     <r>
@@ -3430,6 +3417,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">2.Jetty Container </t>
     </r>
     <r>
@@ -3449,6 +3443,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>dubbo.jetty.port=8080 ----配置jetty</t>
     </r>
     <r>
@@ -3465,6 +3466,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>dubbo.jetty.directory=/foo/bar ----配置可通过jetty</t>
     </r>
     <r>
@@ -3502,6 +3510,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>dubbo.jetty.page=log,status,system ----</t>
     </r>
     <r>
@@ -3531,6 +3546,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>自动配置log4j的配置，</t>
     </r>
     <r>
@@ -3557,6 +3579,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>dubbo.log4j.file=/foo/bar.log ----配置</t>
     </r>
     <r>
@@ -3573,6 +3602,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>dubbo.log4j.level=WARN ----配置日志</t>
     </r>
     <r>
@@ -3589,6 +3625,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>dubbo.log4j.subdirectory=20880 ----配置日志</t>
     </r>
     <r>
@@ -3605,6 +3648,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dubbo 服务容器作用是</t>
     </r>
     <r>
@@ -3646,6 +3696,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -3735,6 +3792,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -3806,6 +3870,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -3895,6 +3966,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -4020,6 +4098,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>服务提供者</t>
     </r>
     <r>
@@ -4039,6 +4124,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>服务</t>
     </r>
     <r>
@@ -4058,6 +4150,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>服务</t>
     </r>
     <r>
@@ -4108,6 +4207,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注册中心配置</t>
     </r>
     <r>
@@ -4126,6 +4233,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>监控</t>
     </r>
     <r>
@@ -4150,6 +4265,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>模块</t>
     </r>
     <r>
@@ -4168,6 +4291,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>服务</t>
     </r>
     <r>
@@ -4187,6 +4317,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>服务</t>
     </r>
     <r>
@@ -4206,6 +4343,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方法</t>
     </r>
     <r>
@@ -4224,6 +4369,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方法参数</t>
     </r>
     <r>
@@ -4242,6 +4395,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>选项参数</t>
     </r>
     <r>
@@ -4284,6 +4445,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dubbo 缺省会在</t>
     </r>
     <r>
@@ -4310,6 +4478,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不可用时会</t>
     </r>
     <r>
@@ -4357,6 +4532,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>默认 check="true"，可以</t>
     </r>
     <r>
@@ -4392,6 +4574,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>hessian序列化比Java序列化高效很多</t>
     </r>
     <r>
@@ -4418,6 +4608,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>但</t>
     </r>
     <r>
@@ -4465,6 +4663,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而hessian序列化，它的</t>
     </r>
     <r>
@@ -4533,6 +4738,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>就像</t>
     </r>
     <r>
@@ -4580,6 +4792,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而对于</t>
     </r>
     <r>
@@ -4648,6 +4867,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而在</t>
     </r>
     <r>
@@ -4706,6 +4932,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从而</t>
     </r>
     <r>
@@ -4732,6 +4965,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这样做的</t>
     </r>
     <r>
@@ -4769,6 +5009,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而且</t>
     </r>
     <r>
@@ -4852,6 +5099,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>可以配置环境</t>
     </r>
     <r>
@@ -4913,6 +5167,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dubbo 允许</t>
     </r>
     <r>
@@ -5008,6 +5269,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>可以用版本号（version）过渡</t>
     </r>
     <r>
@@ -5152,6 +5421,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>可以，</t>
     </r>
     <r>
@@ -5256,6 +5532,37 @@
     <t>，相对多线程开销较小，异步调用会返回一个 Future 对象。</t>
   </si>
   <si>
+    <t>异步调用流程</t>
+  </si>
+  <si>
+    <t>1 用户线程调用方法</t>
+  </si>
+  <si>
+    <t>2 IO线程将请求发送到服务端</t>
+  </si>
+  <si>
+    <t>3 IO线程setFuture到RPCContext</t>
+  </si>
+  <si>
+    <r>
+      <t>4 用户线程执行getFuture去RPCContext中获取结果，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>若为空，通过wait方法等待 .</t>
+    </r>
+  </si>
+  <si>
+    <t>5 服务端响应结果，并写入Future</t>
+  </si>
+  <si>
     <t>Dubbo支持分布式事务吗？</t>
   </si>
   <si>
@@ -5271,22 +5578,195 @@
     <t>telnet localhost 8090 //测试对应IP和端口下的dubbo服务是否连通</t>
   </si>
   <si>
+    <t>invoke 调用服务</t>
+  </si>
+  <si>
+    <t>ls 显示服务列表</t>
+  </si>
+  <si>
+    <t>ps 显示服务端口列表</t>
+  </si>
+  <si>
+    <t>cd 改变缺省服务</t>
+  </si>
+  <si>
+    <t>pwd 显示当前缺省服务</t>
+  </si>
+  <si>
+    <t>trace XxxService 跟踪1次服务任意方法的调用情况。</t>
+  </si>
+  <si>
+    <t>count XxxService 统计1次服务任意方法的调用情况</t>
+  </si>
+  <si>
+    <t>status -l 显示状态列表</t>
+  </si>
+  <si>
+    <t>log 100 查看file logger的最后100字符的日志</t>
+  </si>
+  <si>
+    <t>clear 100 清除屏幕上的指定行数的内容</t>
+  </si>
+  <si>
     <t>Dubbo支持服务降级吗？</t>
   </si>
   <si>
     <t>Dubbo 2.2.0 以上版本支持。</t>
   </si>
   <si>
+    <t>比如说服务 A 调用服务 B，结果服务 B 挂掉了，服务 A 重试几次调用服务 B，还是不行，那么直接降级，走一个备用的逻辑，给用户返回响应。</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;dubbo:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id="fooService" interface="com.test.service.FooService"  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timeout="10000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check="false" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mock="return null"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mock 的值也可以修改为 true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后再跟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接口同一个路径下实现一个 Mock 类，命名规则是 “接口名称+Mock”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 后缀。然后在 Mock 类里实现自己的降级逻辑。</t>
+    </r>
+  </si>
+  <si>
     <t>Dubbo如何优雅停机</t>
   </si>
   <si>
-    <t>优雅停机主要用在服务版本迭代上线的过程中</t>
+    <r>
+      <t>优雅停机主要用在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务版本迭代上线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的过程中</t>
+    </r>
   </si>
   <si>
     <t>比如我们发布了新的服务版本，经常性是直接替换线上正在跑的服务</t>
   </si>
   <si>
-    <t>这个时候如果在服务切换的过程中老的服务没有正常关闭的话，容易造成内存清理问题</t>
+    <r>
+      <t>这个时候如果在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务切换的过程中老的服务没有正常关闭的话，容易造成内存清理问题</t>
+    </r>
   </si>
   <si>
     <t>Dubbo 是通过 JDK 的 ShutdownHook 来完成优雅停机的</t>
@@ -5295,7 +5775,304 @@
     <t>服务提供者能实现失效踢出是什么原理？</t>
   </si>
   <si>
-    <t>服务失效踢出基于 Zookeeper 的临时节点原理。</t>
+    <r>
+      <t xml:space="preserve">服务失效踢出基于 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zookeeper 的临时节点原理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在ZooKeeper中，客户端和服务端</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建立连接后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会话随之建立，生成一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全局唯一的会话ID(Session ID)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果发生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SESSION_TIMEOUT 后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还没有成功连接上服务器，那么</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器认为这个Session已经结束了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>由于在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZK中，很多数据和状态都是和会话绑定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一旦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会话失效，那么ZK就开始清除和这个会话有关的信息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>包括</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个会话创建的临时节点和注册的所有Watcher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>网络</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>恢复后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，客户端可能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会重新连接上服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会告诉客户端一个异常：SESSIONEXPIRED（会话过期）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。此时客户端的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态变成 CLOSED状态</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所以一旦发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生会话超时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，那么存储在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZK上的所有临时数据与注册的订阅者都会被移除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>此时需要重新创建一个ZooKeeper客户端实例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，需要自己编码做一些额外的处理。</t>
+    </r>
   </si>
   <si>
     <t>如何解决服务调用链过长的问题？</t>
@@ -5797,10 +6574,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -5853,45 +6630,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5914,7 +6652,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5929,7 +6705,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5945,29 +6721,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5983,7 +6737,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6061,7 +6838,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6073,25 +6946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6103,25 +6958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6139,25 +6988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6169,79 +7012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6273,8 +7050,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6290,6 +7067,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6314,15 +7100,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6360,10 +7137,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6372,16 +7149,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6393,116 +7170,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6513,6 +7290,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7230,6 +8010,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="53320950"/>
+          <a:ext cx="4105275" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7960,27 +8782,27 @@
       </c>
     </row>
     <row r="24" ht="14.25" spans="3:3">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="3:3">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="3:3">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="3:3">
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="3:3">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8008,12 +8830,12 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="3:3">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="3:3">
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8043,7 +8865,7 @@
       </c>
     </row>
     <row r="44" spans="4:4">
-      <c r="D44" s="7"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
@@ -8177,7 +8999,7 @@
       </c>
     </row>
     <row r="23" ht="14.25" spans="2:2">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8252,7 +9074,7 @@
       </c>
     </row>
     <row r="59" ht="14.25" spans="3:3">
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8294,7 +9116,7 @@
   <dimension ref="A4:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8318,7 +9140,7 @@
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8343,7 +9165,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8389,7 +9211,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B1" t="s">
@@ -8510,13 +9332,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E338"/>
+  <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -9256,217 +10078,389 @@
         <v>299</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="1" t="s">
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="1" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2">
-      <c r="B287" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="290" spans="2:2">
-      <c r="B290" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="1" t="s">
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
         <v>307</v>
       </c>
     </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" t="s">
+        <v>309</v>
+      </c>
+    </row>
     <row r="293" spans="2:2">
-      <c r="B293" t="s">
-        <v>308</v>
+      <c r="B293" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="294" spans="2:2">
-      <c r="B294" t="s">
-        <v>309</v>
-      </c>
+      <c r="B294" s="2"/>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" t="s">
-        <v>310</v>
+      <c r="B295" s="2" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="296" spans="2:2">
-      <c r="B296" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="1" t="s">
+      <c r="B296" s="2" t="s">
         <v>312</v>
       </c>
     </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
     <row r="299" spans="2:2">
-      <c r="B299" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="1" t="s">
-        <v>314</v>
+      <c r="B299" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="302" spans="2:2">
-      <c r="B302" t="s">
-        <v>315</v>
+      <c r="B302" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="304" spans="3:3">
-      <c r="C304" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" s="2"/>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="1" t="s">
+      <c r="B303" s="4" t="s">
         <v>319</v>
       </c>
     </row>
+    <row r="304" spans="2:2">
+      <c r="B304" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>322</v>
+      </c>
+    </row>
     <row r="308" spans="2:2">
-      <c r="B308" s="1" t="s">
-        <v>320</v>
+      <c r="B308" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2">
-      <c r="B312" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="1" t="s">
+      <c r="B309" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="315" spans="2:2">
-      <c r="B315" s="2" t="s">
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="1" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="318" spans="2:2">
-      <c r="B318" s="1" t="s">
+    <row r="319" spans="2:2">
+      <c r="B319" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="319" spans="3:3">
-      <c r="C319" s="2" t="s">
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="320" spans="3:3">
-      <c r="C320" s="2" t="s">
+    <row r="321" spans="2:2">
+      <c r="B321" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="321" spans="3:3">
-      <c r="C321" t="s">
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="322" spans="3:3">
-      <c r="C322" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2">
-      <c r="B326" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2">
-      <c r="B329" t="s">
-        <v>335</v>
-      </c>
+    <row r="323" spans="15:15">
+      <c r="O323" s="2"/>
+    </row>
+    <row r="324" spans="2:15">
+      <c r="B324" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O324" s="2"/>
+    </row>
+    <row r="325" spans="3:15">
+      <c r="C325" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O325" s="2"/>
+    </row>
+    <row r="326" spans="3:15">
+      <c r="C326" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O326" s="2"/>
+    </row>
+    <row r="327" spans="2:15">
+      <c r="B327" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O327" s="2"/>
+    </row>
+    <row r="328" spans="3:15">
+      <c r="C328" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O328" s="2"/>
+    </row>
+    <row r="329" spans="3:15">
+      <c r="C329" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O329" s="2"/>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="332" spans="2:2">
-      <c r="B332" t="s">
+    <row r="337" spans="2:2">
+      <c r="B337" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="1" t="s">
+    <row r="338" spans="2:2">
+      <c r="B338" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="335" spans="2:2">
-      <c r="B335" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="1" t="s">
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="338" spans="2:2">
-      <c r="B338" t="s">
+    <row r="343" spans="2:2">
+      <c r="B343" s="2" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -6308,50 +6308,77 @@
     <t>说说 Dubbo 服务暴露的过程。</t>
   </si>
   <si>
-    <t>简易的暴露流程</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首先将服务的实现封装成一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Invoker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，Invoker中</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>封装了服务的实现类</t>
+    <r>
+      <t>首先</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将服务的实现封装成一个Invoker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>将Invoker</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封装成Exporter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存起来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存里使用Invoker的url作为key</t>
     </r>
     <r>
       <rPr>
@@ -6365,68 +6392,92 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>将Invoker</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>封装成Exporter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，并</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缓存起来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缓存里使用Invoker的url作为key</t>
+    <t>服务端Server启动，监听端口。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求来到时，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求信息生成key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存查找Exporter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找到了Invoker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就可以完成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用</t>
     </r>
     <r>
       <rPr>
@@ -6440,103 +6491,7 @@
     </r>
   </si>
   <si>
-    <t>服务端Server启动，监听端口。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请求来到时，根据</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请求信息生成key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缓存查找Exporter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，就</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>找到了Invoker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，就可以完成</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
+    <t>补充：服务提供方实现Invoker到Exporter的转换,主要是打开创建一个Netty Server 侦听服务，并接收客户端发来的各种请求</t>
   </si>
   <si>
     <t>Dubbo 停止维护了吗？</t>
@@ -6566,7 +6521,51 @@
     <t>在使用过程中都遇到了些什么问题？</t>
   </si>
   <si>
-    <t>Dubbo 的设计目的是为了满足高并发小数据量的 rpc 调用，在大数据量下的性能表现并不好，建议使用 rmi 或 http 协议。</t>
+    <r>
+      <t>Dubbo 的设计目的是为了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>满足高并发小数据量的 rpc 调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大数据量下的性能表现并不好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，建议使用 rmi 或 http 协议。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9201,8 +9200,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9332,10 +9331,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O378"/>
+  <dimension ref="A1:O377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10389,77 +10388,77 @@
       </c>
     </row>
     <row r="358" spans="2:2">
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="359" spans="3:3">
-      <c r="C359" s="2" t="s">
+    <row r="359" spans="2:2">
+      <c r="B359" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="360" spans="3:3">
-      <c r="C360" s="2" t="s">
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="361" spans="3:3">
-      <c r="C361" t="s">
+    <row r="361" spans="2:2">
+      <c r="B361" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="362" spans="3:3">
-      <c r="C362" s="2" t="s">
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="1" t="s">
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="366" spans="2:2">
-      <c r="B366" t="s">
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="1" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="369" spans="2:2">
-      <c r="B369" t="s">
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
-      <c r="A371" s="1" t="s">
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
-      <c r="B372" t="s">
+    <row r="371" spans="2:2">
+      <c r="B371" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="1" t="s">
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="375" spans="2:2">
-      <c r="B375" t="s">
+    <row r="374" spans="2:2">
+      <c r="B374" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="1" t="s">
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="378" spans="2:2">
-      <c r="B378" t="s">
+    <row r="377" spans="2:2">
+      <c r="B377" s="2" t="s">
         <v>366</v>
       </c>
     </row>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="368">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -2129,6 +2129,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>比如说服务 A 调用服务 B，结果服务 B 挂掉了，服务 A 重试几次调用服务 B，还是不行，那么</t>
     </r>
     <r>
@@ -2179,113 +2186,43 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">&lt;dubbo:reference id="fooService" interface="com.test.service.FooService" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> timeout="10000" </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">&lt;dubbo:reference id="fooService" interface="com.test.service.FooService" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">check="false" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> timeout="10000" </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>mock="return null"</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">check="false" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF24292E"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
-  </si>
-  <si>
-    <r>
-      <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>命名规则是 “接口名称+Mock” 后缀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。然后在 Mock 类里实现自己的降级逻辑。</t>
-    </r>
-  </si>
-  <si>
-    <t>失败重试和超时重试</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">就是 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>consumer 调用 provider 要是失败了，比如抛异常了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，此时应该是可以重试的，或者调用超时了也可以重试。配置如下：</t>
-    </r>
-  </si>
-  <si>
+      <t>mock="return null"</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2293,6 +2230,89 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>我们调用接口失败的时候，可以通过 mock 统一返回 null。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mock 的值也可以修改为 true，然后再跟接口同一个路径下实现一个 Mock 类，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命名规则是 “接口名称+Mock” 后缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。然后在 Mock 类里实现自己的降级逻辑。</t>
+    </r>
+  </si>
+  <si>
+    <t>失败重试和超时重试</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">就是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumer 调用 provider 要是失败了，比如抛异常了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此时应该是可以重试的，或者调用超时了也可以重试。配置如下：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>&lt;</t>
     </r>
     <r>
@@ -4792,13 +4812,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>而对于</t>
     </r>
     <r>
@@ -4867,13 +4880,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>而在</t>
     </r>
     <r>
@@ -4932,13 +4938,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>从而</t>
     </r>
     <r>
@@ -5493,6 +5492,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dubbo 是基于</t>
     </r>
     <r>
@@ -5545,6 +5551,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4 用户线程执行getFuture去RPCContext中获取结果，</t>
     </r>
     <r>
@@ -5618,6 +5631,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>&lt;dubbo:</t>
     </r>
     <r>
@@ -5686,6 +5706,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>mock 的值也可以修改为 true</t>
     </r>
     <r>
@@ -5725,6 +5753,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>优雅停机主要用在</t>
     </r>
     <r>
@@ -5754,6 +5789,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个时候如果在</t>
     </r>
     <r>
@@ -5776,6 +5818,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">服务失效踢出基于 </t>
     </r>
     <r>
@@ -5802,6 +5851,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在ZooKeeper中，客户端和服务端</t>
     </r>
     <r>
@@ -5839,6 +5895,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果发生</t>
     </r>
     <r>
@@ -5876,6 +5939,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>由于在</t>
     </r>
     <r>
@@ -5913,6 +5983,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>包括</t>
     </r>
     <r>
@@ -5929,6 +6006,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>网络</t>
     </r>
     <r>
@@ -6008,6 +6092,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>所以一旦发</t>
     </r>
     <r>
@@ -6309,6 +6400,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>首先</t>
     </r>
     <r>
@@ -6491,7 +6589,7 @@
     </r>
   </si>
   <si>
-    <t>补充：服务提供方实现Invoker到Exporter的转换,主要是打开创建一个Netty Server 侦听服务，并接收客户端发来的各种请求</t>
+    <t>Invoker转换为exporter是为了netty的传输</t>
   </si>
   <si>
     <t>Dubbo 停止维护了吗？</t>
@@ -6522,6 +6620,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dubbo 的设计目的是为了</t>
     </r>
     <r>
@@ -6566,6 +6671,9 @@
       </rPr>
       <t>，建议使用 rmi 或 http 协议。</t>
     </r>
+  </si>
+  <si>
+    <t>因为DUBBO默认用的是dubbo协议，序列化用的是hassian，适用于高并发量，小数据量的场景</t>
   </si>
 </sst>
 </file>
@@ -6573,10 +6681,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -6637,6 +6745,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6644,14 +6782,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6667,29 +6829,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6720,46 +6860,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6837,19 +6945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6861,13 +6957,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6885,7 +6999,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6897,97 +7107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6999,25 +7119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7046,11 +7154,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7070,24 +7222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7102,32 +7236,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7136,10 +7244,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7148,16 +7256,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7166,115 +7274,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8051,6 +8159,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="62274450"/>
+          <a:ext cx="5953125" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="62217300"/>
+          <a:ext cx="11363325" cy="4724400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8476,8 +8668,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8676,8 +8868,8 @@
   <sheetPr/>
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8898,7 +9090,7 @@
   <sheetPr/>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
@@ -9114,8 +9306,8 @@
   <sheetPr/>
   <dimension ref="A4:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9200,8 +9392,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9331,10 +9523,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O377"/>
+  <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10408,58 +10600,135 @@
       </c>
     </row>
     <row r="362" spans="2:2">
-      <c r="B362" t="s">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="1" t="s">
+    <row r="364" spans="2:2">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="365" spans="2:2">
-      <c r="B365" t="s">
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="1" t="s">
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="368" spans="2:2">
-      <c r="B368" t="s">
+    <row r="393" spans="2:2">
+      <c r="B393" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="1" t="s">
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
-      <c r="B371" t="s">
+    <row r="396" spans="2:2">
+      <c r="B396" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="1" t="s">
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="374" spans="2:2">
-      <c r="B374" t="s">
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="1" t="s">
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
-      <c r="B377" s="2" t="s">
+    <row r="402" spans="2:2">
+      <c r="B402" s="2" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4081,6 +4081,273 @@
     </r>
   </si>
   <si>
+    <t>说说 Dubbo 服务暴露的过程。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首先</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将服务的实现封装成一个Invoker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将Invoker</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封装成Exporter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存起来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存里使用Invoker的url作为key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>服务端Server启动，监听端口。</t>
+  </si>
+  <si>
+    <r>
+      <t>请求来到时，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求信息生成key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缓存查找Exporter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找到了Invoker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就可以完成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoker转换为exporter是为了netty的传输</t>
+  </si>
+  <si>
+    <t>Dubbo 停止维护了吗？</t>
+  </si>
+  <si>
+    <t>2014 年开始停止维护过几年，17 年开始重新维护，并进入了 Apache 项目。</t>
+  </si>
+  <si>
+    <t>Dubbo如何优雅停机</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优雅停机主要用在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务版本迭代上线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的过程中</t>
+    </r>
+  </si>
+  <si>
+    <t>比如我们发布了新的服务版本，经常性是直接替换线上正在跑的服务</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个时候如果在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务切换的过程中老的服务没有正常关闭的话，容易造成内存清理问题</t>
+    </r>
+  </si>
+  <si>
+    <t>Dubbo 是通过 JDK 的 ShutdownHook 来完成优雅停机的</t>
+  </si>
+  <si>
     <t>Dubbo里面有哪几种节点角色？</t>
   </si>
   <si>
@@ -4812,6 +5079,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而对于</t>
     </r>
     <r>
@@ -4880,6 +5154,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而在</t>
     </r>
     <r>
@@ -4938,6 +5219,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从而</t>
     </r>
     <r>
@@ -5749,71 +6037,6 @@
     </r>
   </si>
   <si>
-    <t>Dubbo如何优雅停机</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>优雅停机主要用在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>服务版本迭代上线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的过程中</t>
-    </r>
-  </si>
-  <si>
-    <t>比如我们发布了新的服务版本，经常性是直接替换线上正在跑的服务</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这个时候如果在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>服务切换的过程中老的服务没有正常关闭的话，容易造成内存清理问题</t>
-    </r>
-  </si>
-  <si>
-    <t>Dubbo 是通过 JDK 的 ShutdownHook 来完成优雅停机的</t>
-  </si>
-  <si>
     <t>服务提供者能实现失效踢出是什么原理？</t>
   </si>
   <si>
@@ -6394,208 +6617,6 @@
       </rPr>
       <t>路由规则，动态配置，服务降级，访问控制，权重调整，负载均衡，等管理功能。</t>
     </r>
-  </si>
-  <si>
-    <t>说说 Dubbo 服务暴露的过程。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>首先</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>将服务的实现封装成一个Invoker</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>将Invoker</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>封装成Exporter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，并</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缓存起来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缓存里使用Invoker的url作为key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>服务端Server启动，监听端口。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请求来到时，根据</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>请求信息生成key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，到</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>缓存查找Exporter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，就</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>找到了Invoker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，就可以完成</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>Invoker转换为exporter是为了netty的传输</t>
-  </si>
-  <si>
-    <t>Dubbo 停止维护了吗？</t>
-  </si>
-  <si>
-    <t>2014 年开始停止维护过几年，17 年开始重新维护，并进入了 Apache 项目。</t>
   </si>
   <si>
     <t>Dubbo 和 Dubbox 有什么区别？</t>
@@ -6681,8 +6702,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -6737,23 +6758,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6768,21 +6789,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6804,16 +6818,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6829,31 +6874,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6867,7 +6888,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6945,7 +6966,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6957,13 +7020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6975,13 +7038,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6993,13 +7068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7011,7 +7086,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7023,43 +7134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7071,61 +7146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7136,6 +7157,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7154,6 +7190,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7165,35 +7210,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7222,17 +7238,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7244,10 +7265,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7256,16 +7277,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7274,115 +7295,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7701,13 +7722,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7725,7 +7746,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="13249275"/>
+          <a:off x="638175" y="21478875"/>
           <a:ext cx="4572000" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7743,13 +7764,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145415</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7767,7 +7788,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="16316325"/>
+          <a:off x="762000" y="24545925"/>
           <a:ext cx="4184015" cy="2591435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7785,13 +7806,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7809,7 +7830,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="28460700"/>
+          <a:off x="685800" y="36690300"/>
           <a:ext cx="5200650" cy="2914650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7827,13 +7848,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7851,7 +7872,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="31718250"/>
+          <a:off x="685800" y="39947850"/>
           <a:ext cx="5781675" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7869,13 +7890,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7893,7 +7914,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="46120050"/>
+          <a:off x="685800" y="54349650"/>
           <a:ext cx="5838825" cy="1790700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7911,13 +7932,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>203</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7935,7 +7956,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="34813875"/>
+          <a:off x="695325" y="43043475"/>
           <a:ext cx="3829050" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7953,13 +7974,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7977,7 +7998,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="43919775"/>
+          <a:off x="1323975" y="52149375"/>
           <a:ext cx="5553075" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7995,13 +8016,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8019,7 +8040,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="44777025"/>
+          <a:off x="1352550" y="53006625"/>
           <a:ext cx="7743825" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8037,13 +8058,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8061,7 +8082,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="40805100"/>
+          <a:off x="1371600" y="49034700"/>
           <a:ext cx="2333625" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8079,13 +8100,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8103,7 +8124,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="42005250"/>
+          <a:off x="1371600" y="50234850"/>
           <a:ext cx="6515100" cy="1514475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8121,13 +8142,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8145,7 +8166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="53320950"/>
+          <a:off x="685800" y="61550550"/>
           <a:ext cx="4105275" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8163,13 +8184,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>384</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8187,7 +8208,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="62274450"/>
+          <a:off x="685800" y="13925550"/>
           <a:ext cx="5953125" cy="3686175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8205,13 +8226,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>362</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8229,7 +8250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="62217300"/>
+          <a:off x="6858000" y="13868400"/>
           <a:ext cx="11363325" cy="4724400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9392,8 +9413,8 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9526,7 +9547,7 @@
   <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404"/>
+      <selection activeCell="B403" sqref="B403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9753,539 +9774,617 @@
     <row r="74" spans="2:2">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" t="s">
-        <v>210</v>
-      </c>
-      <c r="E124" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="2:5">
-      <c r="B125" t="s">
+    <row r="115" spans="15:15">
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="2:15">
+      <c r="B116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="3:15">
+      <c r="C117" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="3:15">
+      <c r="C118" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="2:15">
+      <c r="B119" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="3:15">
+      <c r="C120" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="3:15">
+      <c r="C121" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E125" s="2" t="s">
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="2:5">
-      <c r="B126" t="s">
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E126" s="2" t="s">
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="2:5">
-      <c r="B127" t="s">
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E127" s="1" t="s">
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="2:5">
-      <c r="B128" t="s">
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
         <v>218</v>
       </c>
-      <c r="E128" s="1" t="s">
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
-      <c r="B129" t="s">
+    <row r="168" spans="2:2">
+      <c r="B168" t="s">
         <v>220</v>
       </c>
-      <c r="E129" s="1" t="s">
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
-      <c r="B130" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E130" s="1" t="s">
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" t="s">
+      <c r="E172" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E131" s="2" t="s">
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" t="s">
+      <c r="E173" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E132" s="2" t="s">
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" t="s">
+      <c r="E174" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E133" s="1" t="s">
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" t="s">
+      <c r="E175" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E134" s="1" t="s">
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" t="s">
+      <c r="E176" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E135" s="1" t="s">
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" t="s">
+      <c r="E177" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E136" s="1" t="s">
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="3" t="s">
+      <c r="E178" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
+      <c r="E179" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" t="s">
+    <row r="180" spans="2:5">
+      <c r="B180" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" t="s">
+      <c r="E180" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
+    <row r="181" spans="2:5">
+      <c r="B181" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="2" t="s">
+    <row r="182" spans="2:5">
+      <c r="B182" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="2" t="s">
+      <c r="E182" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="2" t="s">
+    <row r="183" spans="2:5">
+      <c r="B183" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
+    <row r="184" spans="2:5">
+      <c r="B184" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" t="s">
+      <c r="E184" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="153" spans="3:3">
-      <c r="C153" s="1" t="s">
+    <row r="185" spans="2:5">
+      <c r="B185" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="154" spans="3:3">
-      <c r="C154" s="1" t="s">
+      <c r="E185" s="1"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="3:3">
-      <c r="C155" s="2" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="156" spans="4:4">
-      <c r="D156" s="2" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="2" t="s">
+    <row r="190" spans="2:2">
+      <c r="B190" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="158" spans="3:3">
-      <c r="C158" s="2" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="159" spans="4:4">
-      <c r="D159" s="2" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="3:3">
-      <c r="C160" s="2" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
-      <c r="C161" s="2" t="s">
+    <row r="195" spans="2:2">
+      <c r="B195" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
+    <row r="199" spans="2:2">
+      <c r="B199" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="1" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="1" t="s">
+    <row r="201" spans="3:3">
+      <c r="C201" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="2" t="s">
+    <row r="202" spans="3:3">
+      <c r="C202" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="1" t="s">
+    <row r="203" spans="3:3">
+      <c r="C203" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="2" t="s">
+    <row r="204" spans="4:4">
+      <c r="D204" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="1" t="s">
+    <row r="205" spans="3:3">
+      <c r="C205" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="2:2">
-      <c r="B209" t="s">
+    <row r="206" spans="3:3">
+      <c r="C206" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="210" spans="2:2">
-      <c r="B210" t="s">
+    <row r="207" spans="4:4">
+      <c r="D207" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="211" spans="3:3">
-      <c r="C211" t="s">
+    <row r="208" spans="3:3">
+      <c r="C208" s="2" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="213" spans="3:3">
-      <c r="C213" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="215" spans="3:3">
-      <c r="C215" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="1" t="s">
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="1" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="1" t="s">
+    <row r="248" spans="2:2">
+      <c r="B248" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="3:3">
-      <c r="C220" s="1" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="4:4">
-      <c r="D221" t="s">
+    <row r="251" spans="2:2">
+      <c r="B251" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="4:4">
-      <c r="D222" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="3:3">
-      <c r="C223" s="1" t="s">
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="4:4">
-      <c r="D224" t="s">
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="4:4">
-      <c r="D225" t="s">
+    <row r="259" spans="3:3">
+      <c r="C259" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="1" t="s">
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="227" spans="3:3">
-      <c r="C227" s="1" t="s">
+    <row r="261" spans="3:3">
+      <c r="C261" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="4:4">
-      <c r="D228" t="s">
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="229" spans="4:4">
-      <c r="D229" t="s">
+    <row r="263" spans="3:3">
+      <c r="C263" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="230" spans="3:3">
-      <c r="C230" s="1" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="4:4">
-      <c r="D231" t="s">
+    <row r="266" spans="2:2">
+      <c r="B266" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="232" spans="4:4">
-      <c r="D232" t="s">
+    <row r="267" spans="2:2">
+      <c r="B267" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="1" t="s">
+    <row r="268" spans="3:3">
+      <c r="C268" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="2" t="s">
+    <row r="269" spans="4:4">
+      <c r="D269" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="1" t="s">
+    <row r="270" spans="4:4">
+      <c r="D270" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="2"/>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="2"/>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="2"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="2"/>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="2" t="s">
+    <row r="271" spans="3:3">
+      <c r="C271" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="2"/>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" s="2"/>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250" s="2"/>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256" s="1" t="s">
+    <row r="272" spans="4:4">
+      <c r="D272" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="261" spans="2:2">
-      <c r="B261" s="1" t="s">
+    <row r="273" spans="4:4">
+      <c r="D273" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="1" t="s">
+    <row r="274" spans="2:2">
+      <c r="B274" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="267" spans="2:2">
-      <c r="B267" t="s">
+    <row r="275" spans="3:3">
+      <c r="C275" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
-      <c r="B268" s="2" t="s">
+    <row r="276" spans="4:4">
+      <c r="D276" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="269" spans="3:3">
-      <c r="C269" t="s">
+    <row r="277" spans="4:4">
+      <c r="D277" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
+    <row r="278" spans="3:3">
+      <c r="C278" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="282" spans="2:2">
-      <c r="B282" t="s">
+    <row r="279" spans="4:4">
+      <c r="D279" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="283" spans="2:2">
-      <c r="B283" t="s">
+    <row r="280" spans="4:4">
+      <c r="D280" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="284" spans="2:2">
-      <c r="B284" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
         <v>303</v>
       </c>
     </row>
@@ -10295,386 +10394,308 @@
       </c>
     </row>
     <row r="286" spans="2:2">
-      <c r="B286" t="s">
+      <c r="B286" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="1" t="s">
-        <v>306</v>
-      </c>
+    <row r="287" spans="2:2">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="2"/>
     </row>
     <row r="289" spans="2:2">
-      <c r="B289" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="2"/>
     </row>
     <row r="292" spans="2:2">
-      <c r="B292" t="s">
-        <v>309</v>
-      </c>
+      <c r="B292" s="2"/>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" s="2"/>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="2" t="s">
+    <row r="317" spans="3:3">
+      <c r="C317" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="297" spans="2:2">
-      <c r="B297" s="2" t="s">
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="298" spans="2:2">
-      <c r="B298" s="2" t="s">
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="2" t="s">
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="300" spans="2:2">
-      <c r="B300" s="2" t="s">
+    <row r="332" spans="2:2">
+      <c r="B332" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2">
-      <c r="B301" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2">
-      <c r="B304" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2">
-      <c r="B310" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2">
-      <c r="B311" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2">
-      <c r="B319" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2">
-      <c r="B320" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2">
-      <c r="B322" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="323" spans="15:15">
-      <c r="O323" s="2"/>
-    </row>
-    <row r="324" spans="2:15">
-      <c r="B324" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="O324" s="2"/>
-    </row>
-    <row r="325" spans="3:15">
-      <c r="C325" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O325" s="2"/>
-    </row>
-    <row r="326" spans="3:15">
-      <c r="C326" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O326" s="2"/>
-    </row>
-    <row r="327" spans="2:15">
-      <c r="B327" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="O327" s="2"/>
-    </row>
-    <row r="328" spans="3:15">
-      <c r="C328" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O328" s="2"/>
-    </row>
-    <row r="329" spans="3:15">
-      <c r="C329" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O329" s="2"/>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2">
-      <c r="B332" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="334" spans="2:2">
-      <c r="B334" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2">
-      <c r="B335" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2">
-      <c r="B336" s="2" t="s">
-        <v>336</v>
+      <c r="B334" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="337" spans="2:2">
-      <c r="B337" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="338" spans="2:2">
-      <c r="B338" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="1" t="s">
-        <v>339</v>
+      <c r="B337" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="342" spans="2:2">
-      <c r="B342" t="s">
-        <v>340</v>
-      </c>
+      <c r="B342" s="2"/>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="344" spans="3:3">
-      <c r="C344" s="2" t="s">
-        <v>342</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="345" spans="2:2">
       <c r="B345" s="2" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="346" spans="2:2">
-      <c r="B346" s="2"/>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="1" t="s">
-        <v>344</v>
+      <c r="B346" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="348" spans="2:2">
-      <c r="B348" s="1" t="s">
-        <v>345</v>
+      <c r="B348" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="349" spans="2:2">
-      <c r="B349" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="1" t="s">
-        <v>347</v>
+      <c r="B349" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="352" spans="2:2">
       <c r="B352" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
-      <c r="B355" s="2" t="s">
+    <row r="379" spans="3:3">
+      <c r="C379" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="1" t="s">
+    <row r="380" spans="2:2">
+      <c r="B380" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="358" spans="2:2">
-      <c r="B358" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="360" spans="2:2">
-      <c r="B360" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="361" spans="2:2">
-      <c r="B361" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="362" spans="2:2">
-      <c r="B362" s="2"/>
-    </row>
-    <row r="363" spans="2:2">
-      <c r="B363" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="364" spans="2:2">
-      <c r="B364" s="2"/>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365" s="2"/>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366" s="2"/>
-    </row>
-    <row r="367" spans="2:2">
-      <c r="B367" s="2"/>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368" s="2"/>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" s="2"/>
-    </row>
-    <row r="370" spans="2:2">
-      <c r="B370" s="2"/>
-    </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" spans="2:2">
-      <c r="B372" s="2"/>
-    </row>
-    <row r="373" spans="2:2">
-      <c r="B373" s="2"/>
-    </row>
-    <row r="374" spans="2:2">
-      <c r="B374" s="2"/>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375" s="2"/>
-    </row>
-    <row r="376" spans="2:2">
-      <c r="B376" s="2"/>
-    </row>
-    <row r="377" spans="2:2">
-      <c r="B377" s="2"/>
-    </row>
-    <row r="378" spans="2:2">
-      <c r="B378" s="2"/>
-    </row>
-    <row r="379" spans="2:2">
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380" s="2"/>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" s="2"/>
     </row>
-    <row r="382" spans="2:2">
-      <c r="B382" s="2"/>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="383" spans="2:2">
-      <c r="B383" s="2"/>
+      <c r="B383" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="384" spans="2:2">
-      <c r="B384" s="2"/>
-    </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="2"/>
-    </row>
-    <row r="386" spans="2:2">
-      <c r="B386" s="2"/>
+      <c r="B384" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="1" t="s">
@@ -10682,7 +10703,7 @@
       </c>
     </row>
     <row r="390" spans="2:2">
-      <c r="B390" t="s">
+      <c r="B390" s="2" t="s">
         <v>358</v>
       </c>
     </row>
@@ -10733,7 +10754,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B137" r:id="rId2" display="http://dubbo.apache.org/zh-cn/docs/user/references/xml/dubbo-config-center.html"/>
+    <hyperlink ref="B185" r:id="rId2" display="http://dubbo.apache.org/zh-cn/docs/user/references/xml/dubbo-config-center.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Dubbo/Dubbo.xlsx
+++ b/Dubbo/Dubbo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="工作原理" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="服务治理" sheetId="5" r:id="rId5"/>
     <sheet name="生产问题" sheetId="6" r:id="rId6"/>
     <sheet name="面试" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="392">
   <si>
     <t>dubbo 工作原理</t>
   </si>
@@ -4186,6 +4187,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请求来到时，根据</t>
     </r>
     <r>
@@ -6640,61 +6648,82 @@
     <t>在使用过程中都遇到了些什么问题？</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dubbo 的设计目的是为了</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>满足高并发小数据量的 rpc 调用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大数据量下的性能表现并不好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，建议使用 rmi 或 http 协议。</t>
-    </r>
+    <t>Dubbo 的设计目的是为了满足高并发小数据量的 rpc 调用，在大数据量下的性能表现并不好，建议使用 rmi 或 http 协议。</t>
   </si>
   <si>
     <t>因为DUBBO默认用的是dubbo协议，序列化用的是hassian，适用于高并发量，小数据量的场景</t>
+  </si>
+  <si>
+    <t>dubbo启动解析，加载配置信息原理</t>
+  </si>
+  <si>
+    <t>我们配置文件中的远程暴露服务，指定注册中心的位置等</t>
+  </si>
+  <si>
+    <t>因为配置文件是一个spring的一个配置文件</t>
+  </si>
+  <si>
+    <t>spring在启动配置文件中每个标签，都会有个主接口BeanDefinitionParser（bean定义的解析器）</t>
+  </si>
+  <si>
+    <t>其中有一个DubboBeanDefinitionParser（dubbo的标签解析器）</t>
+  </si>
+  <si>
+    <t>里面有个parse方法，通过这个方法来解析标签</t>
+  </si>
+  <si>
+    <t>1 解析标签</t>
+  </si>
+  <si>
+    <t>2 获取标签的ID，标签的名字</t>
+  </si>
+  <si>
+    <t>3 通过标签的类型，比如protocol，provider，consumer等不同的类型做不同的处理</t>
+  </si>
+  <si>
+    <t>因为每个标签对应的是一个bean的class</t>
+  </si>
+  <si>
+    <t>4 保存到每个类型对应的配置容器中</t>
+  </si>
+  <si>
+    <t>在初始化的时候通过DubboNamespaceHandler构造函数来创建对应保存的配置容器</t>
+  </si>
+  <si>
+    <t>dubbo原理 -服务暴露</t>
+  </si>
+  <si>
+    <t>dubbo原理 -服务订阅</t>
+  </si>
+  <si>
+    <t>dubbo原理 -服务调用</t>
+  </si>
+  <si>
+    <t>Proxy 先到代理对象，代理对象中层层封装了各种Invoker</t>
+  </si>
+  <si>
+    <t>Invoker中是各种执行的方法</t>
+  </si>
+  <si>
+    <t>Filter 设置了本地缓存可以在这一层操作</t>
+  </si>
+  <si>
+    <t>Invoker list(invocation) Cluster 将方法和参数传入RpcInvocation的一个远程调用的对象</t>
+  </si>
+  <si>
+    <t>如果有容错设置，MockClusterInvocation集群容错的Invoick设置</t>
+  </si>
+  <si>
+    <t>如果有负载均衡设置，给Invoick设置配置的负载均衡</t>
+  </si>
+  <si>
+    <t>Filter，配置monitor,context等一些信息</t>
+  </si>
+  <si>
+    <t>最终用的Dubbo协议，所以最后用的是dubboProtocol</t>
+  </si>
+  <si>
+    <t>client 启动netty客户端，连接目标接口的服务器，发起请求</t>
   </si>
 </sst>
 </file>
@@ -6702,8 +6731,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -6767,9 +6796,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6780,16 +6825,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6803,7 +6861,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6826,49 +6884,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6887,8 +6907,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6966,25 +6995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7008,13 +7031,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7026,7 +7115,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7038,19 +7139,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7062,91 +7175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7161,16 +7190,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7194,6 +7241,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7213,50 +7286,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7265,10 +7294,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7277,16 +7306,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7295,115 +7324,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8264,6 +8293,177 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>78740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="69846825"/>
+          <a:ext cx="5760720" cy="2412365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637540</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="72180450"/>
+          <a:ext cx="9552940" cy="4543425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="77323950"/>
+          <a:ext cx="8210550" cy="4784725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 55" descr="/dev-guide/images/dubbo-extension.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="82810350"/>
+          <a:ext cx="5760720" cy="5312410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9413,7 +9613,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -9544,10 +9744,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O403"/>
+  <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B403" sqref="B403"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="G416" sqref="G416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10752,6 +10952,126 @@
         <v>367</v>
       </c>
     </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4">
+      <c r="D412" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4">
+      <c r="D413" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4">
+      <c r="D414" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5">
+      <c r="E415" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="416" spans="4:4">
+      <c r="D416" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5">
+      <c r="E417" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2">
+      <c r="B517" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3">
+      <c r="C523" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B185" r:id="rId2" display="http://dubbo.apache.org/zh-cn/docs/user/references/xml/dubbo-config-center.html"/>
@@ -10760,4 +11080,121 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="I5:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="9:9">
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9">
+      <c r="I6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9">
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="I9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9">
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9">
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9">
+      <c r="I13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9">
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9">
+      <c r="I15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9">
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9">
+      <c r="I18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>